--- a/프로젝트 산출물/10. 구조명세서/PuppyPlaytime 관리자 구조명세서 박찬영.xlsx
+++ b/프로젝트 산출물/10. 구조명세서/PuppyPlaytime 관리자 구조명세서 박찬영.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mar\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="2655" windowWidth="19005" windowHeight="15435"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="172">
   <si>
     <r>
       <rPr>
@@ -1320,12 +1315,105 @@
     <t>com.puppy.admin.inquiry.controller</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>AdminReply.xml</t>
+  </si>
+  <si>
+    <t>/admin/reply</t>
+  </si>
+  <si>
+    <t>AdminReplyController</t>
+  </si>
+  <si>
+    <t>com.puppy.admin.reply.controller</t>
+  </si>
+  <si>
+    <t>adminReplyDisabledPost</t>
+  </si>
+  <si>
+    <t>adminReplyPost</t>
+  </si>
+  <si>
+    <t>/WEB-INF/views/admin/reply</t>
+  </si>
+  <si>
+    <t>AdminReplyDAOImpl</t>
+  </si>
+  <si>
+    <t>AdminReplyDAO</t>
+  </si>
+  <si>
+    <t>com.puppy.admin.reply.dao</t>
+  </si>
+  <si>
+    <t>AdminReplyServiceImpl</t>
+  </si>
+  <si>
+    <t>AdminReplyService</t>
+  </si>
+  <si>
+    <t>com.puppy.admin.reply.service</t>
+  </si>
+  <si>
+    <r>
+      <t>reply
+ (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>댓글</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/admin/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>reply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>/replyPost</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/replyDisabledPost</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1420,6 +1508,17 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1502,7 +1601,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1542,6 +1641,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1595,15 +1724,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1620,6 +1740,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1842,13 +1977,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G874"/>
+  <dimension ref="A1:G877"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C68" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="B77" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
@@ -1859,27 +1994,27 @@
     <col min="7" max="7" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-    </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+    </row>
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
@@ -1900,15 +2035,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="37" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -1921,12 +2056,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="30" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="40" t="s">
         <v>76</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -1934,21 +2069,21 @@
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="32"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="6" t="s">
         <v>78</v>
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
@@ -1962,16 +2097,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="34" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="34" t="s">
         <v>80</v>
       </c>
       <c r="F8" s="14" t="s">
@@ -1979,23 +2114,23 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="14" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="24" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="34" t="s">
         <v>81</v>
       </c>
       <c r="F10" s="14" t="s">
@@ -2003,25 +2138,25 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="26"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="14" t="s">
         <v>49</v>
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="27" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="40" t="s">
         <v>76</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -2029,34 +2164,34 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="31"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="32"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="10" t="s">
         <v>82</v>
       </c>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="38" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="45" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="14" t="s">
@@ -2066,12 +2201,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="33"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="14" t="s">
         <v>53</v>
       </c>
@@ -2079,10 +2214,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="9" t="s">
         <v>8</v>
       </c>
@@ -2096,10 +2231,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="36"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="9" t="s">
         <v>9</v>
       </c>
@@ -2111,16 +2246,16 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="17" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="34" t="s">
         <v>88</v>
       </c>
       <c r="F19" s="13" t="s">
@@ -2128,23 +2263,23 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="25"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="13" t="s">
         <v>105</v>
       </c>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="24" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="34" t="s">
         <v>89</v>
       </c>
       <c r="F21" s="13" t="s">
@@ -2152,25 +2287,25 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="26"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="13" t="s">
         <v>93</v>
       </c>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="27" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="40" t="s">
         <v>76</v>
       </c>
       <c r="F23" s="10" t="s">
@@ -2178,34 +2313,34 @@
       </c>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="31"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="32"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="42"/>
       <c r="F25" s="10" t="s">
         <v>82</v>
       </c>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="24" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="34" t="s">
         <v>119</v>
       </c>
       <c r="F26" s="13" t="s">
@@ -2215,12 +2350,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="33"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="13" t="s">
         <v>99</v>
       </c>
@@ -2228,12 +2363,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="26"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="7" t="s">
         <v>97</v>
       </c>
@@ -2241,10 +2376,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="29" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="11" t="s">
         <v>8</v>
       </c>
@@ -2258,10 +2393,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="30" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="11" t="s">
         <v>9</v>
       </c>
@@ -2273,16 +2408,16 @@
       </c>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="31" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="40" t="s">
+      <c r="B31" s="48"/>
+      <c r="C31" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="34" t="s">
         <v>133</v>
       </c>
       <c r="F31" s="7" t="s">
@@ -2290,23 +2425,23 @@
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="32" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="37"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="44"/>
       <c r="F32" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="24" t="s">
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="34" t="s">
         <v>134</v>
       </c>
       <c r="F33" s="7" t="s">
@@ -2314,25 +2449,25 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="37"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="44"/>
       <c r="F34" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="27" t="s">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="40" t="s">
         <v>76</v>
       </c>
       <c r="F35" s="10" t="s">
@@ -2340,34 +2475,34 @@
       </c>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="31"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="41"/>
       <c r="F36" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="32"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="42"/>
       <c r="F37" s="10" t="s">
         <v>82</v>
       </c>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="24" t="s">
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="34" t="s">
         <v>143</v>
       </c>
       <c r="F38" s="7" t="s">
@@ -2377,12 +2512,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="37"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="44"/>
       <c r="F39" s="13" t="s">
         <v>137</v>
       </c>
@@ -2390,10 +2525,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="9" t="s">
         <v>8</v>
       </c>
@@ -2407,10 +2542,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="9" t="s">
         <v>9</v>
       </c>
@@ -2422,16 +2557,16 @@
       </c>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="40" t="s">
+      <c r="B42" s="48"/>
+      <c r="C42" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="34" t="s">
         <v>140</v>
       </c>
       <c r="F42" s="7" t="s">
@@ -2439,23 +2574,23 @@
       </c>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="37"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="44"/>
       <c r="F43" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="24" t="s">
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="34" t="s">
         <v>141</v>
       </c>
       <c r="F44" s="7" t="s">
@@ -2463,25 +2598,25 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="45" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="37"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="44"/>
       <c r="F45" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="27" t="s">
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="40" t="s">
         <v>76</v>
       </c>
       <c r="F46" s="10" t="s">
@@ -2489,34 +2624,34 @@
       </c>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="31"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="41"/>
       <c r="F47" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="32"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="42"/>
       <c r="F48" s="10" t="s">
         <v>82</v>
       </c>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="49" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="24" t="s">
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="34" t="s">
         <v>144</v>
       </c>
       <c r="F49" s="7" t="s">
@@ -2526,12 +2661,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="50" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="25"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="35"/>
       <c r="F50" s="7" t="s">
         <v>145</v>
       </c>
@@ -2539,12 +2674,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="51" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="37"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="44"/>
       <c r="F51" s="7" t="s">
         <v>147</v>
       </c>
@@ -2552,10 +2687,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="52" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
       <c r="D52" s="9" t="s">
         <v>8</v>
       </c>
@@ -2569,10 +2704,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="53" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="42"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="9" t="s">
         <v>9</v>
       </c>
@@ -2584,16 +2719,16 @@
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="54" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="34" t="s">
+      <c r="B54" s="48"/>
+      <c r="C54" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="34" t="s">
         <v>85</v>
       </c>
       <c r="F54" s="13" t="s">
@@ -2601,23 +2736,23 @@
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="55" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="37"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="44"/>
       <c r="F55" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="56" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="24" t="s">
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="34" t="s">
         <v>151</v>
       </c>
       <c r="F56" s="7" t="s">
@@ -2625,25 +2760,25 @@
       </c>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="57" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="37"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="44"/>
       <c r="F57" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="58" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="27" t="s">
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="40" t="s">
         <v>76</v>
       </c>
       <c r="F58" s="10" t="s">
@@ -2651,34 +2786,34 @@
       </c>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="59" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="31"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="41"/>
       <c r="F59" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="60" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="32"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="42"/>
       <c r="F60" s="10" t="s">
         <v>82</v>
       </c>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="61" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="38" t="s">
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="45" t="s">
         <v>59</v>
       </c>
       <c r="F61" s="7" t="s">
@@ -2688,12 +2823,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="62" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="25"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="35"/>
       <c r="F62" s="13" t="s">
         <v>70</v>
       </c>
@@ -2701,12 +2836,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="63" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="25"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="35"/>
       <c r="F63" s="7" t="s">
         <v>72</v>
       </c>
@@ -2714,10 +2849,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="64" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
       <c r="D64" s="9" t="s">
         <v>8</v>
       </c>
@@ -2731,10 +2866,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="65" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="42"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="9" t="s">
         <v>9</v>
       </c>
@@ -2746,16 +2881,16 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="66" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="40" t="s">
+      <c r="B66" s="48"/>
+      <c r="C66" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="E66" s="34" t="s">
         <v>152</v>
       </c>
       <c r="F66" s="7" t="s">
@@ -2763,23 +2898,23 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="67" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="37"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="44"/>
       <c r="F67" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="68" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="24" t="s">
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="34" t="s">
         <v>154</v>
       </c>
       <c r="F68" s="7" t="s">
@@ -2787,25 +2922,25 @@
       </c>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="69" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="37"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="44"/>
       <c r="F69" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="70" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="27" t="s">
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="30" t="s">
+      <c r="E70" s="40" t="s">
         <v>76</v>
       </c>
       <c r="F70" s="10" t="s">
@@ -2813,34 +2948,34 @@
       </c>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="71" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="31"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="41"/>
       <c r="F71" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G71" s="10"/>
     </row>
-    <row r="72" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="72" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="32"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="42"/>
       <c r="F72" s="10" t="s">
         <v>82</v>
       </c>
       <c r="G72" s="10"/>
     </row>
-    <row r="73" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="73" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="24" t="s">
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="34" t="s">
         <v>37</v>
       </c>
       <c r="F73" s="7" t="s">
@@ -2850,12 +2985,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="74" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="25"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="35"/>
       <c r="F74" s="7" t="s">
         <v>40</v>
       </c>
@@ -2863,10 +2998,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="75" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
       <c r="D75" s="9" t="s">
         <v>8</v>
       </c>
@@ -2880,10 +3015,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="76" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
       <c r="D76" s="9" t="s">
         <v>9</v>
       </c>
@@ -2895,16 +3030,16 @@
       </c>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1">
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="24" t="s">
+      <c r="E77" s="34" t="s">
         <v>88</v>
       </c>
       <c r="F77" s="13" t="s">
@@ -2912,23 +3047,23 @@
       </c>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1">
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="26"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="36"/>
       <c r="F78" s="13" t="s">
         <v>91</v>
       </c>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1">
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="24" t="s">
+      <c r="C79" s="29"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="34" t="s">
         <v>89</v>
       </c>
       <c r="F79" s="13" t="s">
@@ -2936,25 +3071,25 @@
       </c>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1">
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="26"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="36"/>
       <c r="F80" s="13" t="s">
         <v>93</v>
       </c>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" spans="1:7" ht="15.75" customHeight="1">
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="27" t="s">
+      <c r="C81" s="29"/>
+      <c r="D81" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="30" t="s">
+      <c r="E81" s="40" t="s">
         <v>76</v>
       </c>
       <c r="F81" s="10" t="s">
@@ -2962,34 +3097,34 @@
       </c>
       <c r="G81" s="10"/>
     </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1">
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="31"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="41"/>
       <c r="F82" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G82" s="10"/>
     </row>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1">
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="32"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="42"/>
       <c r="F83" s="10" t="s">
         <v>82</v>
       </c>
       <c r="G83" s="10"/>
     </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1">
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="24" t="s">
+      <c r="C84" s="29"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="34" t="s">
         <v>118</v>
       </c>
       <c r="F84" s="13" t="s">
@@ -2999,12 +3134,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1">
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="33"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="43"/>
       <c r="F85" s="13" t="s">
         <v>108</v>
       </c>
@@ -3012,12 +3147,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75" customHeight="1">
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="26"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="36"/>
       <c r="F86" s="13" t="s">
         <v>109</v>
       </c>
@@ -3025,10 +3160,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75" customHeight="1">
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="19"/>
+      <c r="C87" s="29"/>
       <c r="D87" s="11" t="s">
         <v>8</v>
       </c>
@@ -3042,10 +3177,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1">
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="20"/>
+      <c r="C88" s="30"/>
       <c r="D88" s="11" t="s">
         <v>9</v>
       </c>
@@ -3057,16 +3192,16 @@
       </c>
       <c r="G88" s="12"/>
     </row>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1">
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="D89" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="24" t="s">
+      <c r="E89" s="34" t="s">
         <v>115</v>
       </c>
       <c r="F89" s="13" t="s">
@@ -3074,23 +3209,23 @@
       </c>
       <c r="G89" s="13"/>
     </row>
-    <row r="90" spans="1:7" ht="15.75" customHeight="1">
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="25"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="35"/>
       <c r="F90" s="13" t="s">
         <v>122</v>
       </c>
       <c r="G90" s="13"/>
     </row>
-    <row r="91" spans="1:7" ht="15.75" customHeight="1">
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="24" t="s">
+      <c r="C91" s="29"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F91" s="13" t="s">
@@ -3098,25 +3233,25 @@
       </c>
       <c r="G91" s="13"/>
     </row>
-    <row r="92" spans="1:7" ht="15.75" customHeight="1">
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="26"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="36"/>
       <c r="F92" s="13" t="s">
         <v>124</v>
       </c>
       <c r="G92" s="13"/>
     </row>
-    <row r="93" spans="1:7" ht="15.75" customHeight="1">
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="27" t="s">
+      <c r="C93" s="29"/>
+      <c r="D93" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="30" t="s">
+      <c r="E93" s="40" t="s">
         <v>76</v>
       </c>
       <c r="F93" s="10" t="s">
@@ -3124,34 +3259,34 @@
       </c>
       <c r="G93" s="10"/>
     </row>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1">
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="31"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="41"/>
       <c r="F94" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1">
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="32"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="42"/>
       <c r="F95" s="10" t="s">
         <v>82</v>
       </c>
       <c r="G95" s="10"/>
     </row>
-    <row r="96" spans="1:7" ht="15.75" customHeight="1">
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="24" t="s">
+      <c r="C96" s="29"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="34" t="s">
         <v>117</v>
       </c>
       <c r="F96" s="13" t="s">
@@ -3161,12 +3296,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1">
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="33"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="43"/>
       <c r="F97" s="13" t="s">
         <v>126</v>
       </c>
@@ -3174,12 +3309,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1">
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="26"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="36"/>
       <c r="F98" s="13" t="s">
         <v>127</v>
       </c>
@@ -3187,10 +3322,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1">
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="19"/>
+      <c r="C99" s="29"/>
       <c r="D99" s="11" t="s">
         <v>8</v>
       </c>
@@ -3204,10 +3339,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
-      <c r="C100" s="20"/>
+      <c r="C100" s="30"/>
       <c r="D100" s="11" t="s">
         <v>9</v>
       </c>
@@ -3219,106 +3354,156 @@
       </c>
       <c r="G100" s="12"/>
     </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1">
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="1:7" ht="15.75" customHeight="1">
+      <c r="C101" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G101" s="17"/>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1">
+      <c r="C102" s="21"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G102" s="17"/>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-    </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1">
+      <c r="C103" s="21"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G103" s="17"/>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-    </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1">
+      <c r="C104" s="21"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G104" s="17"/>
+    </row>
+    <row r="105" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-    </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1">
+      <c r="C105" s="21"/>
+      <c r="D105" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G105" s="10"/>
+    </row>
+    <row r="106" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-    </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1">
+      <c r="C106" s="21"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1">
+      <c r="C107" s="21"/>
+      <c r="D107" s="53"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1">
+      <c r="C108" s="21"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1">
+      <c r="C109" s="21"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1">
+      <c r="C110" s="21"/>
+      <c r="D110" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1">
+      <c r="C111" s="21"/>
+      <c r="D111" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G111" s="17"/>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
@@ -3327,201 +3512,201 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" ht="15.75" customHeight="1">
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" ht="15.75" customHeight="1">
+    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B114" s="1"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B115" s="1"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1">
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:7" ht="15.75" customHeight="1">
+    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1">
+    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:7" ht="15.75" customHeight="1">
+    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:7" ht="15.75" customHeight="1">
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:7" ht="15.75" customHeight="1">
+    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:7" ht="15.75" customHeight="1">
+    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:7" ht="15.75" customHeight="1">
+    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:7" ht="15.75" customHeight="1">
+    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:7" ht="15.75" customHeight="1">
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:7" ht="15.75" customHeight="1">
+    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
     </row>
-    <row r="161" spans="1:7" ht="15.75" customHeight="1">
+    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
     </row>
-    <row r="162" spans="1:7" ht="15.75" customHeight="1">
+    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
     </row>
-    <row r="163" spans="1:7" ht="15.75" customHeight="1">
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
     </row>
-    <row r="164" spans="1:7" ht="15.75" customHeight="1">
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
     </row>
-    <row r="165" spans="1:7" ht="15.75" customHeight="1">
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
     </row>
-    <row r="166" spans="1:7" ht="15.75" customHeight="1">
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:7" ht="15.75" customHeight="1">
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
     </row>
-    <row r="168" spans="1:7" ht="15.75" customHeight="1">
+    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-    </row>
-    <row r="169" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-    </row>
-    <row r="170" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-    </row>
-    <row r="171" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="2"/>
@@ -3530,7 +3715,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="1:7" ht="15.75" customHeight="1">
+    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="2"/>
@@ -3539,7 +3724,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:7" ht="15.75" customHeight="1">
+    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="2"/>
@@ -3548,7 +3733,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="1:7" ht="15.75" customHeight="1">
+    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="2"/>
@@ -3557,7 +3742,7 @@
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="1:7" ht="15.75" customHeight="1">
+    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="2"/>
@@ -3566,7 +3751,7 @@
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="1:7" ht="15.75" customHeight="1">
+    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="2"/>
@@ -3575,7 +3760,7 @@
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
     </row>
-    <row r="177" spans="1:7" ht="15.75" customHeight="1">
+    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="2"/>
@@ -3584,7 +3769,7 @@
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
     </row>
-    <row r="178" spans="1:7" ht="15.75" customHeight="1">
+    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="2"/>
@@ -3593,7 +3778,7 @@
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
     </row>
-    <row r="179" spans="1:7" ht="15.75" customHeight="1">
+    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="2"/>
@@ -3602,7 +3787,7 @@
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
     </row>
-    <row r="180" spans="1:7" ht="15.75" customHeight="1">
+    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="2"/>
@@ -3611,7 +3796,7 @@
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
     </row>
-    <row r="181" spans="1:7" ht="15.75" customHeight="1">
+    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="2"/>
@@ -3620,7 +3805,7 @@
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="1:7" ht="15.75" customHeight="1">
+    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="2"/>
@@ -3629,7 +3814,7 @@
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
     </row>
-    <row r="183" spans="1:7" ht="15.75" customHeight="1">
+    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="2"/>
@@ -3638,7 +3823,7 @@
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
     </row>
-    <row r="184" spans="1:7" ht="15.75" customHeight="1">
+    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="2"/>
@@ -3647,7 +3832,7 @@
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
     </row>
-    <row r="185" spans="1:7" ht="15.75" customHeight="1">
+    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="2"/>
@@ -3656,7 +3841,7 @@
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
     </row>
-    <row r="186" spans="1:7" ht="15.75" customHeight="1">
+    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="2"/>
@@ -3665,7 +3850,7 @@
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
     </row>
-    <row r="187" spans="1:7" ht="15.75" customHeight="1">
+    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="2"/>
@@ -3674,7 +3859,7 @@
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
     </row>
-    <row r="188" spans="1:7" ht="15.75" customHeight="1">
+    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="2"/>
@@ -3683,7 +3868,7 @@
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
     </row>
-    <row r="189" spans="1:7" ht="15.75" customHeight="1">
+    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="2"/>
@@ -3692,7 +3877,7 @@
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
     </row>
-    <row r="190" spans="1:7" ht="15.75" customHeight="1">
+    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="2"/>
@@ -3701,7 +3886,7 @@
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
     </row>
-    <row r="191" spans="1:7" ht="15.75" customHeight="1">
+    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="2"/>
@@ -3710,7 +3895,7 @@
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
     </row>
-    <row r="192" spans="1:7" ht="15.75" customHeight="1">
+    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="2"/>
@@ -3719,7 +3904,7 @@
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
     </row>
-    <row r="193" spans="1:7" ht="15.75" customHeight="1">
+    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="2"/>
@@ -3728,7 +3913,7 @@
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
     </row>
-    <row r="194" spans="1:7" ht="15.75" customHeight="1">
+    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="2"/>
@@ -3737,7 +3922,7 @@
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
     </row>
-    <row r="195" spans="1:7" ht="15.75" customHeight="1">
+    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="2"/>
@@ -3746,7 +3931,7 @@
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
     </row>
-    <row r="196" spans="1:7" ht="15.75" customHeight="1">
+    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="2"/>
@@ -3755,7 +3940,7 @@
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
     </row>
-    <row r="197" spans="1:7" ht="15.75" customHeight="1">
+    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="2"/>
@@ -3764,7 +3949,7 @@
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
     </row>
-    <row r="198" spans="1:7" ht="15.75" customHeight="1">
+    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="2"/>
@@ -3773,7 +3958,7 @@
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
     </row>
-    <row r="199" spans="1:7" ht="15.75" customHeight="1">
+    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="2"/>
@@ -3782,7 +3967,7 @@
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
     </row>
-    <row r="200" spans="1:7" ht="15.75" customHeight="1">
+    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="2"/>
@@ -3791,7 +3976,7 @@
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
     </row>
-    <row r="201" spans="1:7" ht="15.75" customHeight="1">
+    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="2"/>
@@ -3800,7 +3985,7 @@
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
     </row>
-    <row r="202" spans="1:7" ht="15.75" customHeight="1">
+    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="2"/>
@@ -3809,7 +3994,7 @@
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
     </row>
-    <row r="203" spans="1:7" ht="15.75" customHeight="1">
+    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="2"/>
@@ -3818,7 +4003,7 @@
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
     </row>
-    <row r="204" spans="1:7" ht="15.75" customHeight="1">
+    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="2"/>
@@ -3827,7 +4012,7 @@
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
     </row>
-    <row r="205" spans="1:7" ht="15.75" customHeight="1">
+    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="2"/>
@@ -3836,7 +4021,7 @@
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
     </row>
-    <row r="206" spans="1:7" ht="15.75" customHeight="1">
+    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="2"/>
@@ -3845,7 +4030,7 @@
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
     </row>
-    <row r="207" spans="1:7" ht="15.75" customHeight="1">
+    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="2"/>
@@ -3854,7 +4039,7 @@
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
     </row>
-    <row r="208" spans="1:7" ht="15.75" customHeight="1">
+    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="2"/>
@@ -3863,7 +4048,7 @@
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
     </row>
-    <row r="209" spans="1:7" ht="15.75" customHeight="1">
+    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="2"/>
@@ -3872,7 +4057,7 @@
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
     </row>
-    <row r="210" spans="1:7" ht="15.75" customHeight="1">
+    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="2"/>
@@ -3881,7 +4066,7 @@
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
     </row>
-    <row r="211" spans="1:7" ht="15.75" customHeight="1">
+    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="2"/>
@@ -3890,7 +4075,7 @@
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
     </row>
-    <row r="212" spans="1:7" ht="15.75" customHeight="1">
+    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="2"/>
@@ -3899,7 +4084,7 @@
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
     </row>
-    <row r="213" spans="1:7" ht="15.75" customHeight="1">
+    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="2"/>
@@ -3908,7 +4093,7 @@
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
     </row>
-    <row r="214" spans="1:7" ht="15.75" customHeight="1">
+    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="2"/>
@@ -3917,7 +4102,7 @@
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
     </row>
-    <row r="215" spans="1:7" ht="15.75" customHeight="1">
+    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="2"/>
@@ -3926,7 +4111,7 @@
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
     </row>
-    <row r="216" spans="1:7" ht="15.75" customHeight="1">
+    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="2"/>
@@ -3935,7 +4120,7 @@
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
     </row>
-    <row r="217" spans="1:7" ht="15.75" customHeight="1">
+    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="2"/>
@@ -3944,7 +4129,7 @@
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
     </row>
-    <row r="218" spans="1:7" ht="15.75" customHeight="1">
+    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="2"/>
@@ -3953,7 +4138,7 @@
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
     </row>
-    <row r="219" spans="1:7" ht="15.75" customHeight="1">
+    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="2"/>
@@ -3962,7 +4147,7 @@
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
     </row>
-    <row r="220" spans="1:7" ht="15.75" customHeight="1">
+    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="2"/>
@@ -3971,7 +4156,7 @@
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
     </row>
-    <row r="221" spans="1:7" ht="15.75" customHeight="1">
+    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="2"/>
@@ -3980,7 +4165,7 @@
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
     </row>
-    <row r="222" spans="1:7" ht="15.75" customHeight="1">
+    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="2"/>
@@ -3989,7 +4174,7 @@
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
     </row>
-    <row r="223" spans="1:7" ht="15.75" customHeight="1">
+    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="2"/>
@@ -3998,7 +4183,7 @@
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
     </row>
-    <row r="224" spans="1:7" ht="15.75" customHeight="1">
+    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="2"/>
@@ -4007,7 +4192,7 @@
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
     </row>
-    <row r="225" spans="1:7" ht="15.75" customHeight="1">
+    <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="2"/>
@@ -4016,7 +4201,7 @@
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
     </row>
-    <row r="226" spans="1:7" ht="15.75" customHeight="1">
+    <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="2"/>
@@ -4025,7 +4210,7 @@
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
     </row>
-    <row r="227" spans="1:7" ht="15.75" customHeight="1">
+    <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="2"/>
@@ -4034,7 +4219,7 @@
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
     </row>
-    <row r="228" spans="1:7" ht="15.75" customHeight="1">
+    <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="2"/>
@@ -4043,7 +4228,7 @@
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
     </row>
-    <row r="229" spans="1:7" ht="15.75" customHeight="1">
+    <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="2"/>
@@ -4052,7 +4237,7 @@
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
     </row>
-    <row r="230" spans="1:7" ht="15.75" customHeight="1">
+    <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="2"/>
@@ -4061,7 +4246,7 @@
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
     </row>
-    <row r="231" spans="1:7" ht="15.75" customHeight="1">
+    <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="2"/>
@@ -4070,7 +4255,7 @@
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
     </row>
-    <row r="232" spans="1:7" ht="15.75" customHeight="1">
+    <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="2"/>
@@ -4079,7 +4264,7 @@
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
     </row>
-    <row r="233" spans="1:7" ht="15.75" customHeight="1">
+    <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="2"/>
@@ -4088,7 +4273,7 @@
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
     </row>
-    <row r="234" spans="1:7" ht="15.75" customHeight="1">
+    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="2"/>
@@ -4097,7 +4282,7 @@
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
     </row>
-    <row r="235" spans="1:7" ht="15.75" customHeight="1">
+    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="2"/>
@@ -4106,7 +4291,7 @@
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
     </row>
-    <row r="236" spans="1:7" ht="15.75" customHeight="1">
+    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="2"/>
@@ -4115,7 +4300,7 @@
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
     </row>
-    <row r="237" spans="1:7" ht="15.75" customHeight="1">
+    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="2"/>
@@ -4124,7 +4309,7 @@
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
     </row>
-    <row r="238" spans="1:7" ht="15.75" customHeight="1">
+    <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="2"/>
@@ -4133,7 +4318,7 @@
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
     </row>
-    <row r="239" spans="1:7" ht="15.75" customHeight="1">
+    <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="2"/>
@@ -4142,7 +4327,7 @@
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
     </row>
-    <row r="240" spans="1:7" ht="15.75" customHeight="1">
+    <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="2"/>
@@ -4151,43 +4336,43 @@
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
     </row>
-    <row r="241" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
-      <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
+    <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
     </row>
-    <row r="242" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A242" s="3"/>
-      <c r="B242" s="3"/>
-      <c r="C242" s="3"/>
-      <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
-      <c r="F242" s="3"/>
-      <c r="G242" s="3"/>
-    </row>
-    <row r="243" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A243" s="3"/>
-      <c r="B243" s="3"/>
-      <c r="C243" s="3"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="3"/>
-      <c r="G243" s="3"/>
-    </row>
-    <row r="244" spans="1:7" ht="15.75" customHeight="1">
+    <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+    </row>
+    <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+    </row>
+    <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
-      <c r="F244" s="3"/>
-      <c r="G244" s="3"/>
-    </row>
-    <row r="245" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+    </row>
+    <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -4196,7 +4381,7 @@
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
     </row>
-    <row r="246" spans="1:7" ht="15.75" customHeight="1">
+    <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -4205,7 +4390,7 @@
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
     </row>
-    <row r="247" spans="1:7" ht="15.75" customHeight="1">
+    <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -4214,7 +4399,7 @@
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
     </row>
-    <row r="248" spans="1:7" ht="15.75" customHeight="1">
+    <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -4223,7 +4408,7 @@
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
     </row>
-    <row r="249" spans="1:7" ht="15.75" customHeight="1">
+    <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -4232,7 +4417,7 @@
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
     </row>
-    <row r="250" spans="1:7" ht="15.75" customHeight="1">
+    <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -4241,7 +4426,7 @@
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
     </row>
-    <row r="251" spans="1:7" ht="15.75" customHeight="1">
+    <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -4250,7 +4435,7 @@
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
     </row>
-    <row r="252" spans="1:7" ht="15.75" customHeight="1">
+    <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -4259,7 +4444,7 @@
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
     </row>
-    <row r="253" spans="1:7" ht="15.75" customHeight="1">
+    <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -4268,7 +4453,7 @@
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
     </row>
-    <row r="254" spans="1:7" ht="15.75" customHeight="1">
+    <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -4277,7 +4462,7 @@
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
     </row>
-    <row r="255" spans="1:7" ht="15.75" customHeight="1">
+    <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -4286,7 +4471,7 @@
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
     </row>
-    <row r="256" spans="1:7" ht="15.75" customHeight="1">
+    <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -4295,7 +4480,7 @@
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
     </row>
-    <row r="257" spans="1:7" ht="15.75" customHeight="1">
+    <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -4304,7 +4489,7 @@
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
     </row>
-    <row r="258" spans="1:7" ht="15.75" customHeight="1">
+    <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -4313,7 +4498,7 @@
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
     </row>
-    <row r="259" spans="1:7" ht="15.75" customHeight="1">
+    <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -4322,7 +4507,7 @@
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
     </row>
-    <row r="260" spans="1:7" ht="15.75" customHeight="1">
+    <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -4331,7 +4516,7 @@
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
     </row>
-    <row r="261" spans="1:7" ht="15.75" customHeight="1">
+    <row r="261" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -4340,7 +4525,7 @@
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
     </row>
-    <row r="262" spans="1:7" ht="15.75" customHeight="1">
+    <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -4349,7 +4534,7 @@
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
     </row>
-    <row r="263" spans="1:7" ht="15.75" customHeight="1">
+    <row r="263" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -4358,7 +4543,7 @@
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
     </row>
-    <row r="264" spans="1:7" ht="15.75" customHeight="1">
+    <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -4367,7 +4552,7 @@
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
     </row>
-    <row r="265" spans="1:7" ht="15.75" customHeight="1">
+    <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -4376,7 +4561,7 @@
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
     </row>
-    <row r="266" spans="1:7" ht="15.75" customHeight="1">
+    <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -4385,7 +4570,7 @@
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
     </row>
-    <row r="267" spans="1:7" ht="15.75" customHeight="1">
+    <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -4394,7 +4579,7 @@
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
     </row>
-    <row r="268" spans="1:7" ht="15.75" customHeight="1">
+    <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -4403,7 +4588,7 @@
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
     </row>
-    <row r="269" spans="1:7" ht="15.75" customHeight="1">
+    <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -4412,7 +4597,7 @@
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
     </row>
-    <row r="270" spans="1:7" ht="15.75" customHeight="1">
+    <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -4421,7 +4606,7 @@
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
     </row>
-    <row r="271" spans="1:7" ht="15.75" customHeight="1">
+    <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -4430,7 +4615,7 @@
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
     </row>
-    <row r="272" spans="1:7" ht="15.75" customHeight="1">
+    <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -4439,7 +4624,7 @@
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
     </row>
-    <row r="273" spans="1:7" ht="15.75" customHeight="1">
+    <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -4448,7 +4633,7 @@
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
     </row>
-    <row r="274" spans="1:7" ht="15.75" customHeight="1">
+    <row r="274" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -4457,7 +4642,7 @@
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
     </row>
-    <row r="275" spans="1:7" ht="15.75" customHeight="1">
+    <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -4466,7 +4651,7 @@
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
     </row>
-    <row r="276" spans="1:7" ht="15.75" customHeight="1">
+    <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -4475,7 +4660,7 @@
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
     </row>
-    <row r="277" spans="1:7" ht="15.75" customHeight="1">
+    <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -4484,7 +4669,7 @@
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
     </row>
-    <row r="278" spans="1:7" ht="15.75" customHeight="1">
+    <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -4493,7 +4678,7 @@
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
     </row>
-    <row r="279" spans="1:7" ht="15.75" customHeight="1">
+    <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -4502,7 +4687,7 @@
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
     </row>
-    <row r="280" spans="1:7" ht="15.75" customHeight="1">
+    <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -4511,7 +4696,7 @@
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
     </row>
-    <row r="281" spans="1:7" ht="15.75" customHeight="1">
+    <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -4520,7 +4705,7 @@
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
     </row>
-    <row r="282" spans="1:7" ht="15.75" customHeight="1">
+    <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -4529,7 +4714,7 @@
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
     </row>
-    <row r="283" spans="1:7" ht="15.75" customHeight="1">
+    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -4538,7 +4723,7 @@
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
     </row>
-    <row r="284" spans="1:7" ht="15.75" customHeight="1">
+    <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -4547,7 +4732,7 @@
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
     </row>
-    <row r="285" spans="1:7" ht="15.75" customHeight="1">
+    <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -4556,7 +4741,7 @@
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
     </row>
-    <row r="286" spans="1:7" ht="15.75" customHeight="1">
+    <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -4565,7 +4750,7 @@
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
     </row>
-    <row r="287" spans="1:7" ht="15.75" customHeight="1">
+    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -4574,7 +4759,7 @@
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
     </row>
-    <row r="288" spans="1:7" ht="15.75" customHeight="1">
+    <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -4583,7 +4768,7 @@
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
     </row>
-    <row r="289" spans="1:7" ht="15.75" customHeight="1">
+    <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -4592,7 +4777,7 @@
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
     </row>
-    <row r="290" spans="1:7" ht="15.75" customHeight="1">
+    <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -4601,7 +4786,7 @@
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
     </row>
-    <row r="291" spans="1:7" ht="15.75" customHeight="1">
+    <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -4610,7 +4795,7 @@
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
     </row>
-    <row r="292" spans="1:7" ht="15.75" customHeight="1">
+    <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -4619,7 +4804,7 @@
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
     </row>
-    <row r="293" spans="1:7" ht="15.75" customHeight="1">
+    <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -4628,7 +4813,7 @@
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
     </row>
-    <row r="294" spans="1:7" ht="15.75" customHeight="1">
+    <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -4637,7 +4822,7 @@
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
     </row>
-    <row r="295" spans="1:7" ht="15.75" customHeight="1">
+    <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -4646,7 +4831,7 @@
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
     </row>
-    <row r="296" spans="1:7" ht="15.75" customHeight="1">
+    <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -4655,7 +4840,7 @@
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
     </row>
-    <row r="297" spans="1:7" ht="15.75" customHeight="1">
+    <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -4664,7 +4849,7 @@
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
     </row>
-    <row r="298" spans="1:7" ht="15.75" customHeight="1">
+    <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -4673,7 +4858,7 @@
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
     </row>
-    <row r="299" spans="1:7" ht="15.75" customHeight="1">
+    <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -4682,7 +4867,7 @@
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
     </row>
-    <row r="300" spans="1:7" ht="15.75" customHeight="1">
+    <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -4691,7 +4876,7 @@
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
     </row>
-    <row r="301" spans="1:7" ht="15.75" customHeight="1">
+    <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -4700,7 +4885,7 @@
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
     </row>
-    <row r="302" spans="1:7" ht="15.75" customHeight="1">
+    <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -4709,7 +4894,7 @@
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
     </row>
-    <row r="303" spans="1:7" ht="15.75" customHeight="1">
+    <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -4718,7 +4903,7 @@
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
     </row>
-    <row r="304" spans="1:7" ht="15.75" customHeight="1">
+    <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -4727,7 +4912,7 @@
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
     </row>
-    <row r="305" spans="1:7" ht="15.75" customHeight="1">
+    <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -4736,7 +4921,7 @@
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
     </row>
-    <row r="306" spans="1:7" ht="15.75" customHeight="1">
+    <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -4745,7 +4930,7 @@
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
     </row>
-    <row r="307" spans="1:7" ht="15.75" customHeight="1">
+    <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -4754,7 +4939,7 @@
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
     </row>
-    <row r="308" spans="1:7" ht="15.75" customHeight="1">
+    <row r="308" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -4763,7 +4948,7 @@
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
     </row>
-    <row r="309" spans="1:7" ht="15.75" customHeight="1">
+    <row r="309" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -4772,7 +4957,7 @@
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
     </row>
-    <row r="310" spans="1:7" ht="15.75" customHeight="1">
+    <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -4781,7 +4966,7 @@
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
     </row>
-    <row r="311" spans="1:7" ht="15.75" customHeight="1">
+    <row r="311" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -4790,7 +4975,7 @@
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
     </row>
-    <row r="312" spans="1:7" ht="15.75" customHeight="1">
+    <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -4799,7 +4984,7 @@
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
     </row>
-    <row r="313" spans="1:7" ht="15.75" customHeight="1">
+    <row r="313" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -4808,7 +4993,7 @@
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
     </row>
-    <row r="314" spans="1:7" ht="15.75" customHeight="1">
+    <row r="314" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -4817,7 +5002,7 @@
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
     </row>
-    <row r="315" spans="1:7" ht="15.75" customHeight="1">
+    <row r="315" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -4826,7 +5011,7 @@
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
     </row>
-    <row r="316" spans="1:7" ht="15.75" customHeight="1">
+    <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -4835,7 +5020,7 @@
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
     </row>
-    <row r="317" spans="1:7" ht="15.75" customHeight="1">
+    <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -4844,7 +5029,7 @@
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
     </row>
-    <row r="318" spans="1:7" ht="15.75" customHeight="1">
+    <row r="318" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -4853,7 +5038,7 @@
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
     </row>
-    <row r="319" spans="1:7" ht="15.75" customHeight="1">
+    <row r="319" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -4862,7 +5047,7 @@
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
     </row>
-    <row r="320" spans="1:7" ht="15.75" customHeight="1">
+    <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -4871,7 +5056,7 @@
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
     </row>
-    <row r="321" spans="1:7" ht="15.75" customHeight="1">
+    <row r="321" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -4880,7 +5065,7 @@
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
     </row>
-    <row r="322" spans="1:7" ht="15.75" customHeight="1">
+    <row r="322" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -4889,7 +5074,7 @@
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
     </row>
-    <row r="323" spans="1:7" ht="15.75" customHeight="1">
+    <row r="323" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -4898,7 +5083,7 @@
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
     </row>
-    <row r="324" spans="1:7" ht="15.75" customHeight="1">
+    <row r="324" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -4907,7 +5092,7 @@
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
     </row>
-    <row r="325" spans="1:7" ht="15.75" customHeight="1">
+    <row r="325" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -4916,7 +5101,7 @@
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
     </row>
-    <row r="326" spans="1:7" ht="15.75" customHeight="1">
+    <row r="326" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -4925,7 +5110,7 @@
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
     </row>
-    <row r="327" spans="1:7" ht="15.75" customHeight="1">
+    <row r="327" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -4934,7 +5119,7 @@
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
     </row>
-    <row r="328" spans="1:7" ht="15.75" customHeight="1">
+    <row r="328" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -4943,7 +5128,7 @@
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
     </row>
-    <row r="329" spans="1:7" ht="15.75" customHeight="1">
+    <row r="329" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -4952,7 +5137,7 @@
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
     </row>
-    <row r="330" spans="1:7" ht="15.75" customHeight="1">
+    <row r="330" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -4961,7 +5146,7 @@
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
     </row>
-    <row r="331" spans="1:7" ht="15.75" customHeight="1">
+    <row r="331" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -4970,7 +5155,7 @@
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
     </row>
-    <row r="332" spans="1:7" ht="15.75" customHeight="1">
+    <row r="332" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -4979,7 +5164,7 @@
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
     </row>
-    <row r="333" spans="1:7" ht="15.75" customHeight="1">
+    <row r="333" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -4988,7 +5173,7 @@
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
     </row>
-    <row r="334" spans="1:7" ht="15.75" customHeight="1">
+    <row r="334" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -4997,7 +5182,7 @@
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
     </row>
-    <row r="335" spans="1:7" ht="15.75" customHeight="1">
+    <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -5006,7 +5191,7 @@
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
     </row>
-    <row r="336" spans="1:7" ht="15.75" customHeight="1">
+    <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -5015,7 +5200,7 @@
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
     </row>
-    <row r="337" spans="1:7" ht="15.75" customHeight="1">
+    <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -5024,7 +5209,7 @@
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
     </row>
-    <row r="338" spans="1:7" ht="15.75" customHeight="1">
+    <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -5033,7 +5218,7 @@
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
     </row>
-    <row r="339" spans="1:7" ht="15.75" customHeight="1">
+    <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -5042,7 +5227,7 @@
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
     </row>
-    <row r="340" spans="1:7" ht="15.75" customHeight="1">
+    <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -5051,7 +5236,7 @@
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
     </row>
-    <row r="341" spans="1:7" ht="15.75" customHeight="1">
+    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -5060,7 +5245,7 @@
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
     </row>
-    <row r="342" spans="1:7" ht="15.75" customHeight="1">
+    <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -5069,7 +5254,7 @@
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
     </row>
-    <row r="343" spans="1:7" ht="15.75" customHeight="1">
+    <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -5078,7 +5263,7 @@
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
     </row>
-    <row r="344" spans="1:7" ht="15.75" customHeight="1">
+    <row r="344" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -5087,7 +5272,7 @@
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
     </row>
-    <row r="345" spans="1:7" ht="15.75" customHeight="1">
+    <row r="345" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -5096,7 +5281,7 @@
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
     </row>
-    <row r="346" spans="1:7" ht="15.75" customHeight="1">
+    <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -5105,7 +5290,7 @@
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
     </row>
-    <row r="347" spans="1:7" ht="15.75" customHeight="1">
+    <row r="347" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -5114,7 +5299,7 @@
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
     </row>
-    <row r="348" spans="1:7" ht="15.75" customHeight="1">
+    <row r="348" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -5123,7 +5308,7 @@
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
     </row>
-    <row r="349" spans="1:7" ht="15.75" customHeight="1">
+    <row r="349" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -5132,7 +5317,7 @@
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
     </row>
-    <row r="350" spans="1:7" ht="15.75" customHeight="1">
+    <row r="350" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -5141,7 +5326,7 @@
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
     </row>
-    <row r="351" spans="1:7" ht="15.75" customHeight="1">
+    <row r="351" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -5150,7 +5335,7 @@
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
     </row>
-    <row r="352" spans="1:7" ht="15.75" customHeight="1">
+    <row r="352" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -5159,7 +5344,7 @@
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
     </row>
-    <row r="353" spans="1:7" ht="15.75" customHeight="1">
+    <row r="353" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -5168,7 +5353,7 @@
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
     </row>
-    <row r="354" spans="1:7" ht="15.75" customHeight="1">
+    <row r="354" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -5177,7 +5362,7 @@
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
     </row>
-    <row r="355" spans="1:7" ht="15.75" customHeight="1">
+    <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -5186,7 +5371,7 @@
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
     </row>
-    <row r="356" spans="1:7" ht="15.75" customHeight="1">
+    <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -5195,7 +5380,7 @@
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
     </row>
-    <row r="357" spans="1:7" ht="15.75" customHeight="1">
+    <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -5204,7 +5389,7 @@
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
     </row>
-    <row r="358" spans="1:7" ht="15.75" customHeight="1">
+    <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -5213,7 +5398,7 @@
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
     </row>
-    <row r="359" spans="1:7" ht="15.75" customHeight="1">
+    <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -5222,7 +5407,7 @@
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
     </row>
-    <row r="360" spans="1:7" ht="15.75" customHeight="1">
+    <row r="360" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -5231,7 +5416,7 @@
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
     </row>
-    <row r="361" spans="1:7" ht="15.75" customHeight="1">
+    <row r="361" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -5240,7 +5425,7 @@
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
     </row>
-    <row r="362" spans="1:7" ht="15.75" customHeight="1">
+    <row r="362" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -5249,7 +5434,7 @@
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
     </row>
-    <row r="363" spans="1:7" ht="15.75" customHeight="1">
+    <row r="363" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -5258,7 +5443,7 @@
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
     </row>
-    <row r="364" spans="1:7" ht="15.75" customHeight="1">
+    <row r="364" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -5267,7 +5452,7 @@
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
     </row>
-    <row r="365" spans="1:7" ht="15.75" customHeight="1">
+    <row r="365" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -5276,7 +5461,7 @@
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
     </row>
-    <row r="366" spans="1:7" ht="15.75" customHeight="1">
+    <row r="366" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -5285,7 +5470,7 @@
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
     </row>
-    <row r="367" spans="1:7" ht="15.75" customHeight="1">
+    <row r="367" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -5294,7 +5479,7 @@
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
     </row>
-    <row r="368" spans="1:7" ht="15.75" customHeight="1">
+    <row r="368" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -5303,7 +5488,7 @@
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
     </row>
-    <row r="369" spans="1:7" ht="15.75" customHeight="1">
+    <row r="369" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -5312,7 +5497,7 @@
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
     </row>
-    <row r="370" spans="1:7" ht="15.75" customHeight="1">
+    <row r="370" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -5321,7 +5506,7 @@
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
     </row>
-    <row r="371" spans="1:7" ht="15.75" customHeight="1">
+    <row r="371" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -5330,7 +5515,7 @@
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
     </row>
-    <row r="372" spans="1:7" ht="15.75" customHeight="1">
+    <row r="372" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -5339,7 +5524,7 @@
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
     </row>
-    <row r="373" spans="1:7" ht="15.75" customHeight="1">
+    <row r="373" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -5348,7 +5533,7 @@
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
     </row>
-    <row r="374" spans="1:7" ht="15.75" customHeight="1">
+    <row r="374" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -5357,7 +5542,7 @@
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
     </row>
-    <row r="375" spans="1:7" ht="15.75" customHeight="1">
+    <row r="375" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -5366,7 +5551,7 @@
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
     </row>
-    <row r="376" spans="1:7" ht="15.75" customHeight="1">
+    <row r="376" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -5375,7 +5560,7 @@
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
     </row>
-    <row r="377" spans="1:7" ht="15.75" customHeight="1">
+    <row r="377" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -5384,7 +5569,7 @@
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
     </row>
-    <row r="378" spans="1:7" ht="15.75" customHeight="1">
+    <row r="378" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -5393,7 +5578,7 @@
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
     </row>
-    <row r="379" spans="1:7" ht="15.75" customHeight="1">
+    <row r="379" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -5402,7 +5587,7 @@
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
     </row>
-    <row r="380" spans="1:7" ht="15.75" customHeight="1">
+    <row r="380" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -5411,7 +5596,7 @@
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
     </row>
-    <row r="381" spans="1:7" ht="15.75" customHeight="1">
+    <row r="381" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -5420,7 +5605,7 @@
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
     </row>
-    <row r="382" spans="1:7" ht="15.75" customHeight="1">
+    <row r="382" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -5429,7 +5614,7 @@
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
     </row>
-    <row r="383" spans="1:7" ht="15.75" customHeight="1">
+    <row r="383" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -5438,7 +5623,7 @@
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
     </row>
-    <row r="384" spans="1:7" ht="15.75" customHeight="1">
+    <row r="384" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -5447,7 +5632,7 @@
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
     </row>
-    <row r="385" spans="1:7" ht="15.75" customHeight="1">
+    <row r="385" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -5456,7 +5641,7 @@
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
     </row>
-    <row r="386" spans="1:7" ht="15.75" customHeight="1">
+    <row r="386" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -5465,7 +5650,7 @@
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
     </row>
-    <row r="387" spans="1:7" ht="15.75" customHeight="1">
+    <row r="387" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -5474,7 +5659,7 @@
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
     </row>
-    <row r="388" spans="1:7" ht="15.75" customHeight="1">
+    <row r="388" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -5483,7 +5668,7 @@
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
     </row>
-    <row r="389" spans="1:7" ht="15.75" customHeight="1">
+    <row r="389" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -5492,7 +5677,7 @@
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
     </row>
-    <row r="390" spans="1:7" ht="15.75" customHeight="1">
+    <row r="390" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -5501,7 +5686,7 @@
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
     </row>
-    <row r="391" spans="1:7" ht="15.75" customHeight="1">
+    <row r="391" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -5510,7 +5695,7 @@
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
     </row>
-    <row r="392" spans="1:7" ht="15.75" customHeight="1">
+    <row r="392" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -5519,7 +5704,7 @@
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
     </row>
-    <row r="393" spans="1:7" ht="15.75" customHeight="1">
+    <row r="393" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -5528,7 +5713,7 @@
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
     </row>
-    <row r="394" spans="1:7" ht="15.75" customHeight="1">
+    <row r="394" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -5537,7 +5722,7 @@
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
     </row>
-    <row r="395" spans="1:7" ht="15.75" customHeight="1">
+    <row r="395" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -5546,7 +5731,7 @@
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
     </row>
-    <row r="396" spans="1:7" ht="15.75" customHeight="1">
+    <row r="396" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -5555,7 +5740,7 @@
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
     </row>
-    <row r="397" spans="1:7" ht="15.75" customHeight="1">
+    <row r="397" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -5564,7 +5749,7 @@
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
     </row>
-    <row r="398" spans="1:7" ht="15.75" customHeight="1">
+    <row r="398" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -5573,7 +5758,7 @@
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
     </row>
-    <row r="399" spans="1:7" ht="15.75" customHeight="1">
+    <row r="399" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -5582,7 +5767,7 @@
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
     </row>
-    <row r="400" spans="1:7" ht="15.75" customHeight="1">
+    <row r="400" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -5591,7 +5776,7 @@
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
     </row>
-    <row r="401" spans="1:7" ht="15.75" customHeight="1">
+    <row r="401" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -5600,7 +5785,7 @@
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
     </row>
-    <row r="402" spans="1:7" ht="15.75" customHeight="1">
+    <row r="402" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -5609,7 +5794,7 @@
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
     </row>
-    <row r="403" spans="1:7" ht="15.75" customHeight="1">
+    <row r="403" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -5618,7 +5803,7 @@
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
     </row>
-    <row r="404" spans="1:7" ht="15.75" customHeight="1">
+    <row r="404" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -5627,7 +5812,7 @@
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
     </row>
-    <row r="405" spans="1:7" ht="15.75" customHeight="1">
+    <row r="405" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -5636,7 +5821,7 @@
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
     </row>
-    <row r="406" spans="1:7" ht="15.75" customHeight="1">
+    <row r="406" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -5645,7 +5830,7 @@
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
     </row>
-    <row r="407" spans="1:7" ht="15.75" customHeight="1">
+    <row r="407" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -5654,7 +5839,7 @@
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
     </row>
-    <row r="408" spans="1:7" ht="15.75" customHeight="1">
+    <row r="408" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -5663,7 +5848,7 @@
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
     </row>
-    <row r="409" spans="1:7" ht="15.75" customHeight="1">
+    <row r="409" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -5672,7 +5857,7 @@
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
     </row>
-    <row r="410" spans="1:7" ht="15.75" customHeight="1">
+    <row r="410" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -5681,7 +5866,7 @@
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
     </row>
-    <row r="411" spans="1:7" ht="15.75" customHeight="1">
+    <row r="411" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -5690,7 +5875,7 @@
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
     </row>
-    <row r="412" spans="1:7" ht="15.75" customHeight="1">
+    <row r="412" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -5699,7 +5884,7 @@
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
     </row>
-    <row r="413" spans="1:7" ht="15.75" customHeight="1">
+    <row r="413" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -5708,7 +5893,7 @@
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
     </row>
-    <row r="414" spans="1:7" ht="15.75" customHeight="1">
+    <row r="414" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -5717,7 +5902,7 @@
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
     </row>
-    <row r="415" spans="1:7" ht="15.75" customHeight="1">
+    <row r="415" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -5726,7 +5911,7 @@
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
     </row>
-    <row r="416" spans="1:7" ht="15.75" customHeight="1">
+    <row r="416" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -5735,7 +5920,7 @@
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
     </row>
-    <row r="417" spans="1:7" ht="15.75" customHeight="1">
+    <row r="417" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -5744,7 +5929,7 @@
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
     </row>
-    <row r="418" spans="1:7" ht="15.75" customHeight="1">
+    <row r="418" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -5753,7 +5938,7 @@
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
     </row>
-    <row r="419" spans="1:7" ht="15.75" customHeight="1">
+    <row r="419" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -5762,7 +5947,7 @@
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
     </row>
-    <row r="420" spans="1:7" ht="15.75" customHeight="1">
+    <row r="420" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -5771,7 +5956,7 @@
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
     </row>
-    <row r="421" spans="1:7" ht="15.75" customHeight="1">
+    <row r="421" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -5780,7 +5965,7 @@
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
     </row>
-    <row r="422" spans="1:7" ht="15.75" customHeight="1">
+    <row r="422" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -5789,7 +5974,7 @@
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
     </row>
-    <row r="423" spans="1:7" ht="15.75" customHeight="1">
+    <row r="423" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -5798,7 +5983,7 @@
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
     </row>
-    <row r="424" spans="1:7" ht="15.75" customHeight="1">
+    <row r="424" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -5807,7 +5992,7 @@
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
     </row>
-    <row r="425" spans="1:7" ht="15.75" customHeight="1">
+    <row r="425" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -5816,7 +6001,7 @@
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
     </row>
-    <row r="426" spans="1:7" ht="15.75" customHeight="1">
+    <row r="426" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -5825,7 +6010,7 @@
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
     </row>
-    <row r="427" spans="1:7" ht="15.75" customHeight="1">
+    <row r="427" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -5834,7 +6019,7 @@
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
     </row>
-    <row r="428" spans="1:7" ht="15.75" customHeight="1">
+    <row r="428" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -5843,7 +6028,7 @@
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
     </row>
-    <row r="429" spans="1:7" ht="15.75" customHeight="1">
+    <row r="429" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -5852,7 +6037,7 @@
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
     </row>
-    <row r="430" spans="1:7" ht="15.75" customHeight="1">
+    <row r="430" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -5861,7 +6046,7 @@
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
     </row>
-    <row r="431" spans="1:7" ht="15.75" customHeight="1">
+    <row r="431" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -5870,7 +6055,7 @@
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
     </row>
-    <row r="432" spans="1:7" ht="15.75" customHeight="1">
+    <row r="432" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -5879,7 +6064,7 @@
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
     </row>
-    <row r="433" spans="1:7" ht="15.75" customHeight="1">
+    <row r="433" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -5888,7 +6073,7 @@
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
     </row>
-    <row r="434" spans="1:7" ht="15.75" customHeight="1">
+    <row r="434" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -5897,7 +6082,7 @@
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
     </row>
-    <row r="435" spans="1:7" ht="15.75" customHeight="1">
+    <row r="435" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -5906,7 +6091,7 @@
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
     </row>
-    <row r="436" spans="1:7" ht="15.75" customHeight="1">
+    <row r="436" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -5915,7 +6100,7 @@
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
     </row>
-    <row r="437" spans="1:7" ht="15.75" customHeight="1">
+    <row r="437" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -5924,7 +6109,7 @@
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
     </row>
-    <row r="438" spans="1:7" ht="15.75" customHeight="1">
+    <row r="438" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -5933,7 +6118,7 @@
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
     </row>
-    <row r="439" spans="1:7" ht="15.75" customHeight="1">
+    <row r="439" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -5942,7 +6127,7 @@
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
     </row>
-    <row r="440" spans="1:7" ht="15.75" customHeight="1">
+    <row r="440" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -5951,7 +6136,7 @@
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
     </row>
-    <row r="441" spans="1:7" ht="15.75" customHeight="1">
+    <row r="441" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -5960,7 +6145,7 @@
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
     </row>
-    <row r="442" spans="1:7" ht="15.75" customHeight="1">
+    <row r="442" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -5969,7 +6154,7 @@
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
     </row>
-    <row r="443" spans="1:7" ht="15.75" customHeight="1">
+    <row r="443" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -5978,7 +6163,7 @@
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
     </row>
-    <row r="444" spans="1:7" ht="15.75" customHeight="1">
+    <row r="444" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -5987,7 +6172,7 @@
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
     </row>
-    <row r="445" spans="1:7" ht="15.75" customHeight="1">
+    <row r="445" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -5996,7 +6181,7 @@
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
     </row>
-    <row r="446" spans="1:7" ht="15.75" customHeight="1">
+    <row r="446" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -6005,7 +6190,7 @@
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
     </row>
-    <row r="447" spans="1:7" ht="15.75" customHeight="1">
+    <row r="447" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -6014,7 +6199,7 @@
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
     </row>
-    <row r="448" spans="1:7" ht="15.75" customHeight="1">
+    <row r="448" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -6023,7 +6208,7 @@
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
     </row>
-    <row r="449" spans="1:7" ht="15.75" customHeight="1">
+    <row r="449" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -6032,7 +6217,7 @@
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
     </row>
-    <row r="450" spans="1:7" ht="15.75" customHeight="1">
+    <row r="450" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -6041,7 +6226,7 @@
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
     </row>
-    <row r="451" spans="1:7" ht="15.75" customHeight="1">
+    <row r="451" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -6050,7 +6235,7 @@
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
     </row>
-    <row r="452" spans="1:7" ht="15.75" customHeight="1">
+    <row r="452" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -6059,7 +6244,7 @@
       <c r="F452" s="3"/>
       <c r="G452" s="3"/>
     </row>
-    <row r="453" spans="1:7" ht="15.75" customHeight="1">
+    <row r="453" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -6068,7 +6253,7 @@
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
     </row>
-    <row r="454" spans="1:7" ht="15.75" customHeight="1">
+    <row r="454" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -6077,7 +6262,7 @@
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
     </row>
-    <row r="455" spans="1:7" ht="15.75" customHeight="1">
+    <row r="455" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -6086,7 +6271,7 @@
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
     </row>
-    <row r="456" spans="1:7" ht="15.75" customHeight="1">
+    <row r="456" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -6095,7 +6280,7 @@
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
     </row>
-    <row r="457" spans="1:7" ht="15.75" customHeight="1">
+    <row r="457" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -6104,7 +6289,7 @@
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
     </row>
-    <row r="458" spans="1:7" ht="15.75" customHeight="1">
+    <row r="458" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -6113,7 +6298,7 @@
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
     </row>
-    <row r="459" spans="1:7" ht="15.75" customHeight="1">
+    <row r="459" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -6122,7 +6307,7 @@
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
     </row>
-    <row r="460" spans="1:7" ht="15.75" customHeight="1">
+    <row r="460" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -6131,7 +6316,7 @@
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
     </row>
-    <row r="461" spans="1:7" ht="15.75" customHeight="1">
+    <row r="461" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -6140,7 +6325,7 @@
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
     </row>
-    <row r="462" spans="1:7" ht="15.75" customHeight="1">
+    <row r="462" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -6149,7 +6334,7 @@
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
     </row>
-    <row r="463" spans="1:7" ht="15.75" customHeight="1">
+    <row r="463" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -6158,7 +6343,7 @@
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
     </row>
-    <row r="464" spans="1:7" ht="15.75" customHeight="1">
+    <row r="464" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -6167,7 +6352,7 @@
       <c r="F464" s="3"/>
       <c r="G464" s="3"/>
     </row>
-    <row r="465" spans="1:7" ht="15.75" customHeight="1">
+    <row r="465" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -6176,7 +6361,7 @@
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
     </row>
-    <row r="466" spans="1:7" ht="15.75" customHeight="1">
+    <row r="466" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -6185,7 +6370,7 @@
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
     </row>
-    <row r="467" spans="1:7" ht="15.75" customHeight="1">
+    <row r="467" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -6194,7 +6379,7 @@
       <c r="F467" s="3"/>
       <c r="G467" s="3"/>
     </row>
-    <row r="468" spans="1:7" ht="15.75" customHeight="1">
+    <row r="468" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -6203,7 +6388,7 @@
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
     </row>
-    <row r="469" spans="1:7" ht="15.75" customHeight="1">
+    <row r="469" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -6212,7 +6397,7 @@
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
     </row>
-    <row r="470" spans="1:7" ht="15.75" customHeight="1">
+    <row r="470" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -6221,7 +6406,7 @@
       <c r="F470" s="3"/>
       <c r="G470" s="3"/>
     </row>
-    <row r="471" spans="1:7" ht="15.75" customHeight="1">
+    <row r="471" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -6230,7 +6415,7 @@
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
     </row>
-    <row r="472" spans="1:7" ht="15.75" customHeight="1">
+    <row r="472" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -6239,7 +6424,7 @@
       <c r="F472" s="3"/>
       <c r="G472" s="3"/>
     </row>
-    <row r="473" spans="1:7" ht="15.75" customHeight="1">
+    <row r="473" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -6248,7 +6433,7 @@
       <c r="F473" s="3"/>
       <c r="G473" s="3"/>
     </row>
-    <row r="474" spans="1:7" ht="15.75" customHeight="1">
+    <row r="474" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -6257,7 +6442,7 @@
       <c r="F474" s="3"/>
       <c r="G474" s="3"/>
     </row>
-    <row r="475" spans="1:7" ht="15.75" customHeight="1">
+    <row r="475" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -6266,7 +6451,7 @@
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
     </row>
-    <row r="476" spans="1:7" ht="15.75" customHeight="1">
+    <row r="476" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -6275,7 +6460,7 @@
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
     </row>
-    <row r="477" spans="1:7" ht="15.75" customHeight="1">
+    <row r="477" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -6284,7 +6469,7 @@
       <c r="F477" s="3"/>
       <c r="G477" s="3"/>
     </row>
-    <row r="478" spans="1:7" ht="15.75" customHeight="1">
+    <row r="478" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -6293,7 +6478,7 @@
       <c r="F478" s="3"/>
       <c r="G478" s="3"/>
     </row>
-    <row r="479" spans="1:7" ht="15.75" customHeight="1">
+    <row r="479" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -6302,7 +6487,7 @@
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
     </row>
-    <row r="480" spans="1:7" ht="15.75" customHeight="1">
+    <row r="480" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -6311,7 +6496,7 @@
       <c r="F480" s="3"/>
       <c r="G480" s="3"/>
     </row>
-    <row r="481" spans="1:7" ht="15.75" customHeight="1">
+    <row r="481" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -6320,7 +6505,7 @@
       <c r="F481" s="3"/>
       <c r="G481" s="3"/>
     </row>
-    <row r="482" spans="1:7" ht="15.75" customHeight="1">
+    <row r="482" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -6329,7 +6514,7 @@
       <c r="F482" s="3"/>
       <c r="G482" s="3"/>
     </row>
-    <row r="483" spans="1:7" ht="15.75" customHeight="1">
+    <row r="483" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -6338,7 +6523,7 @@
       <c r="F483" s="3"/>
       <c r="G483" s="3"/>
     </row>
-    <row r="484" spans="1:7" ht="15.75" customHeight="1">
+    <row r="484" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -6347,7 +6532,7 @@
       <c r="F484" s="3"/>
       <c r="G484" s="3"/>
     </row>
-    <row r="485" spans="1:7" ht="15.75" customHeight="1">
+    <row r="485" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -6356,7 +6541,7 @@
       <c r="F485" s="3"/>
       <c r="G485" s="3"/>
     </row>
-    <row r="486" spans="1:7" ht="15.75" customHeight="1">
+    <row r="486" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -6365,7 +6550,7 @@
       <c r="F486" s="3"/>
       <c r="G486" s="3"/>
     </row>
-    <row r="487" spans="1:7" ht="15.75" customHeight="1">
+    <row r="487" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -6374,7 +6559,7 @@
       <c r="F487" s="3"/>
       <c r="G487" s="3"/>
     </row>
-    <row r="488" spans="1:7" ht="15.75" customHeight="1">
+    <row r="488" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -6383,7 +6568,7 @@
       <c r="F488" s="3"/>
       <c r="G488" s="3"/>
     </row>
-    <row r="489" spans="1:7" ht="15.75" customHeight="1">
+    <row r="489" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -6392,7 +6577,7 @@
       <c r="F489" s="3"/>
       <c r="G489" s="3"/>
     </row>
-    <row r="490" spans="1:7" ht="15.75" customHeight="1">
+    <row r="490" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -6401,7 +6586,7 @@
       <c r="F490" s="3"/>
       <c r="G490" s="3"/>
     </row>
-    <row r="491" spans="1:7" ht="15.75" customHeight="1">
+    <row r="491" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -6410,7 +6595,7 @@
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
     </row>
-    <row r="492" spans="1:7" ht="15.75" customHeight="1">
+    <row r="492" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -6419,7 +6604,7 @@
       <c r="F492" s="3"/>
       <c r="G492" s="3"/>
     </row>
-    <row r="493" spans="1:7" ht="15.75" customHeight="1">
+    <row r="493" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -6428,7 +6613,7 @@
       <c r="F493" s="3"/>
       <c r="G493" s="3"/>
     </row>
-    <row r="494" spans="1:7" ht="15.75" customHeight="1">
+    <row r="494" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -6437,7 +6622,7 @@
       <c r="F494" s="3"/>
       <c r="G494" s="3"/>
     </row>
-    <row r="495" spans="1:7" ht="15.75" customHeight="1">
+    <row r="495" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -6446,7 +6631,7 @@
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
     </row>
-    <row r="496" spans="1:7" ht="15.75" customHeight="1">
+    <row r="496" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -6455,7 +6640,7 @@
       <c r="F496" s="3"/>
       <c r="G496" s="3"/>
     </row>
-    <row r="497" spans="1:7" ht="15.75" customHeight="1">
+    <row r="497" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -6464,7 +6649,7 @@
       <c r="F497" s="3"/>
       <c r="G497" s="3"/>
     </row>
-    <row r="498" spans="1:7" ht="15.75" customHeight="1">
+    <row r="498" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -6473,7 +6658,7 @@
       <c r="F498" s="3"/>
       <c r="G498" s="3"/>
     </row>
-    <row r="499" spans="1:7" ht="15.75" customHeight="1">
+    <row r="499" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -6482,7 +6667,7 @@
       <c r="F499" s="3"/>
       <c r="G499" s="3"/>
     </row>
-    <row r="500" spans="1:7" ht="15.75" customHeight="1">
+    <row r="500" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -6491,7 +6676,7 @@
       <c r="F500" s="3"/>
       <c r="G500" s="3"/>
     </row>
-    <row r="501" spans="1:7" ht="15.75" customHeight="1">
+    <row r="501" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -6500,7 +6685,7 @@
       <c r="F501" s="3"/>
       <c r="G501" s="3"/>
     </row>
-    <row r="502" spans="1:7" ht="15.75" customHeight="1">
+    <row r="502" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -6509,7 +6694,7 @@
       <c r="F502" s="3"/>
       <c r="G502" s="3"/>
     </row>
-    <row r="503" spans="1:7" ht="15.75" customHeight="1">
+    <row r="503" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -6518,7 +6703,7 @@
       <c r="F503" s="3"/>
       <c r="G503" s="3"/>
     </row>
-    <row r="504" spans="1:7" ht="15.75" customHeight="1">
+    <row r="504" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -6527,7 +6712,7 @@
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
     </row>
-    <row r="505" spans="1:7" ht="15.75" customHeight="1">
+    <row r="505" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -6536,7 +6721,7 @@
       <c r="F505" s="3"/>
       <c r="G505" s="3"/>
     </row>
-    <row r="506" spans="1:7" ht="15.75" customHeight="1">
+    <row r="506" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -6545,7 +6730,7 @@
       <c r="F506" s="3"/>
       <c r="G506" s="3"/>
     </row>
-    <row r="507" spans="1:7" ht="15.75" customHeight="1">
+    <row r="507" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -6554,7 +6739,7 @@
       <c r="F507" s="3"/>
       <c r="G507" s="3"/>
     </row>
-    <row r="508" spans="1:7" ht="15.75" customHeight="1">
+    <row r="508" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -6563,7 +6748,7 @@
       <c r="F508" s="3"/>
       <c r="G508" s="3"/>
     </row>
-    <row r="509" spans="1:7" ht="15.75" customHeight="1">
+    <row r="509" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -6572,7 +6757,7 @@
       <c r="F509" s="3"/>
       <c r="G509" s="3"/>
     </row>
-    <row r="510" spans="1:7" ht="15.75" customHeight="1">
+    <row r="510" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -6581,7 +6766,7 @@
       <c r="F510" s="3"/>
       <c r="G510" s="3"/>
     </row>
-    <row r="511" spans="1:7" ht="15.75" customHeight="1">
+    <row r="511" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -6590,7 +6775,7 @@
       <c r="F511" s="3"/>
       <c r="G511" s="3"/>
     </row>
-    <row r="512" spans="1:7" ht="15.75" customHeight="1">
+    <row r="512" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -6599,7 +6784,7 @@
       <c r="F512" s="3"/>
       <c r="G512" s="3"/>
     </row>
-    <row r="513" spans="1:7" ht="15.75" customHeight="1">
+    <row r="513" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -6608,7 +6793,7 @@
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
     </row>
-    <row r="514" spans="1:7" ht="15.75" customHeight="1">
+    <row r="514" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -6617,7 +6802,7 @@
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
     </row>
-    <row r="515" spans="1:7" ht="15.75" customHeight="1">
+    <row r="515" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -6626,7 +6811,7 @@
       <c r="F515" s="3"/>
       <c r="G515" s="3"/>
     </row>
-    <row r="516" spans="1:7" ht="15.75" customHeight="1">
+    <row r="516" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -6635,7 +6820,7 @@
       <c r="F516" s="3"/>
       <c r="G516" s="3"/>
     </row>
-    <row r="517" spans="1:7" ht="15.75" customHeight="1">
+    <row r="517" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -6644,7 +6829,7 @@
       <c r="F517" s="3"/>
       <c r="G517" s="3"/>
     </row>
-    <row r="518" spans="1:7" ht="15.75" customHeight="1">
+    <row r="518" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -6653,7 +6838,7 @@
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
     </row>
-    <row r="519" spans="1:7" ht="15.75" customHeight="1">
+    <row r="519" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -6662,7 +6847,7 @@
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
     </row>
-    <row r="520" spans="1:7" ht="15.75" customHeight="1">
+    <row r="520" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -6671,7 +6856,7 @@
       <c r="F520" s="3"/>
       <c r="G520" s="3"/>
     </row>
-    <row r="521" spans="1:7" ht="15.75" customHeight="1">
+    <row r="521" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -6680,7 +6865,7 @@
       <c r="F521" s="3"/>
       <c r="G521" s="3"/>
     </row>
-    <row r="522" spans="1:7" ht="15.75" customHeight="1">
+    <row r="522" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -6689,7 +6874,7 @@
       <c r="F522" s="3"/>
       <c r="G522" s="3"/>
     </row>
-    <row r="523" spans="1:7" ht="15.75" customHeight="1">
+    <row r="523" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -6698,7 +6883,7 @@
       <c r="F523" s="3"/>
       <c r="G523" s="3"/>
     </row>
-    <row r="524" spans="1:7" ht="15.75" customHeight="1">
+    <row r="524" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -6707,7 +6892,7 @@
       <c r="F524" s="3"/>
       <c r="G524" s="3"/>
     </row>
-    <row r="525" spans="1:7" ht="15.75" customHeight="1">
+    <row r="525" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -6716,7 +6901,7 @@
       <c r="F525" s="3"/>
       <c r="G525" s="3"/>
     </row>
-    <row r="526" spans="1:7" ht="15.75" customHeight="1">
+    <row r="526" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -6725,7 +6910,7 @@
       <c r="F526" s="3"/>
       <c r="G526" s="3"/>
     </row>
-    <row r="527" spans="1:7" ht="15.75" customHeight="1">
+    <row r="527" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -6734,7 +6919,7 @@
       <c r="F527" s="3"/>
       <c r="G527" s="3"/>
     </row>
-    <row r="528" spans="1:7" ht="15.75" customHeight="1">
+    <row r="528" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -6743,7 +6928,7 @@
       <c r="F528" s="3"/>
       <c r="G528" s="3"/>
     </row>
-    <row r="529" spans="1:7" ht="15.75" customHeight="1">
+    <row r="529" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -6752,7 +6937,7 @@
       <c r="F529" s="3"/>
       <c r="G529" s="3"/>
     </row>
-    <row r="530" spans="1:7" ht="15.75" customHeight="1">
+    <row r="530" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -6761,7 +6946,7 @@
       <c r="F530" s="3"/>
       <c r="G530" s="3"/>
     </row>
-    <row r="531" spans="1:7" ht="15.75" customHeight="1">
+    <row r="531" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -6770,7 +6955,7 @@
       <c r="F531" s="3"/>
       <c r="G531" s="3"/>
     </row>
-    <row r="532" spans="1:7" ht="15.75" customHeight="1">
+    <row r="532" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -6779,7 +6964,7 @@
       <c r="F532" s="3"/>
       <c r="G532" s="3"/>
     </row>
-    <row r="533" spans="1:7" ht="15.75" customHeight="1">
+    <row r="533" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -6788,7 +6973,7 @@
       <c r="F533" s="3"/>
       <c r="G533" s="3"/>
     </row>
-    <row r="534" spans="1:7" ht="15.75" customHeight="1">
+    <row r="534" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -6797,7 +6982,7 @@
       <c r="F534" s="3"/>
       <c r="G534" s="3"/>
     </row>
-    <row r="535" spans="1:7" ht="15.75" customHeight="1">
+    <row r="535" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -6806,7 +6991,7 @@
       <c r="F535" s="3"/>
       <c r="G535" s="3"/>
     </row>
-    <row r="536" spans="1:7" ht="15.75" customHeight="1">
+    <row r="536" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -6815,7 +7000,7 @@
       <c r="F536" s="3"/>
       <c r="G536" s="3"/>
     </row>
-    <row r="537" spans="1:7" ht="15.75" customHeight="1">
+    <row r="537" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -6824,7 +7009,7 @@
       <c r="F537" s="3"/>
       <c r="G537" s="3"/>
     </row>
-    <row r="538" spans="1:7" ht="15.75" customHeight="1">
+    <row r="538" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -6833,7 +7018,7 @@
       <c r="F538" s="3"/>
       <c r="G538" s="3"/>
     </row>
-    <row r="539" spans="1:7" ht="15.75" customHeight="1">
+    <row r="539" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -6842,7 +7027,7 @@
       <c r="F539" s="3"/>
       <c r="G539" s="3"/>
     </row>
-    <row r="540" spans="1:7" ht="15.75" customHeight="1">
+    <row r="540" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -6851,7 +7036,7 @@
       <c r="F540" s="3"/>
       <c r="G540" s="3"/>
     </row>
-    <row r="541" spans="1:7" ht="15.75" customHeight="1">
+    <row r="541" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -6860,7 +7045,7 @@
       <c r="F541" s="3"/>
       <c r="G541" s="3"/>
     </row>
-    <row r="542" spans="1:7" ht="15.75" customHeight="1">
+    <row r="542" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -6869,7 +7054,7 @@
       <c r="F542" s="3"/>
       <c r="G542" s="3"/>
     </row>
-    <row r="543" spans="1:7" ht="15.75" customHeight="1">
+    <row r="543" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -6878,7 +7063,7 @@
       <c r="F543" s="3"/>
       <c r="G543" s="3"/>
     </row>
-    <row r="544" spans="1:7" ht="15.75" customHeight="1">
+    <row r="544" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -6887,7 +7072,7 @@
       <c r="F544" s="3"/>
       <c r="G544" s="3"/>
     </row>
-    <row r="545" spans="1:7" ht="15.75" customHeight="1">
+    <row r="545" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -6896,7 +7081,7 @@
       <c r="F545" s="3"/>
       <c r="G545" s="3"/>
     </row>
-    <row r="546" spans="1:7" ht="15.75" customHeight="1">
+    <row r="546" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -6905,7 +7090,7 @@
       <c r="F546" s="3"/>
       <c r="G546" s="3"/>
     </row>
-    <row r="547" spans="1:7" ht="15.75" customHeight="1">
+    <row r="547" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -6914,7 +7099,7 @@
       <c r="F547" s="3"/>
       <c r="G547" s="3"/>
     </row>
-    <row r="548" spans="1:7" ht="15.75" customHeight="1">
+    <row r="548" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -6923,7 +7108,7 @@
       <c r="F548" s="3"/>
       <c r="G548" s="3"/>
     </row>
-    <row r="549" spans="1:7" ht="15.75" customHeight="1">
+    <row r="549" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -6932,7 +7117,7 @@
       <c r="F549" s="3"/>
       <c r="G549" s="3"/>
     </row>
-    <row r="550" spans="1:7" ht="15.75" customHeight="1">
+    <row r="550" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -6941,7 +7126,7 @@
       <c r="F550" s="3"/>
       <c r="G550" s="3"/>
     </row>
-    <row r="551" spans="1:7" ht="15.75" customHeight="1">
+    <row r="551" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -6950,7 +7135,7 @@
       <c r="F551" s="3"/>
       <c r="G551" s="3"/>
     </row>
-    <row r="552" spans="1:7" ht="15.75" customHeight="1">
+    <row r="552" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -6959,7 +7144,7 @@
       <c r="F552" s="3"/>
       <c r="G552" s="3"/>
     </row>
-    <row r="553" spans="1:7" ht="15.75" customHeight="1">
+    <row r="553" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -6968,7 +7153,7 @@
       <c r="F553" s="3"/>
       <c r="G553" s="3"/>
     </row>
-    <row r="554" spans="1:7" ht="15.75" customHeight="1">
+    <row r="554" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -6977,7 +7162,7 @@
       <c r="F554" s="3"/>
       <c r="G554" s="3"/>
     </row>
-    <row r="555" spans="1:7" ht="15.75" customHeight="1">
+    <row r="555" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -6986,7 +7171,7 @@
       <c r="F555" s="3"/>
       <c r="G555" s="3"/>
     </row>
-    <row r="556" spans="1:7" ht="15.75" customHeight="1">
+    <row r="556" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -6995,7 +7180,7 @@
       <c r="F556" s="3"/>
       <c r="G556" s="3"/>
     </row>
-    <row r="557" spans="1:7" ht="15.75" customHeight="1">
+    <row r="557" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -7004,7 +7189,7 @@
       <c r="F557" s="3"/>
       <c r="G557" s="3"/>
     </row>
-    <row r="558" spans="1:7" ht="15.75" customHeight="1">
+    <row r="558" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -7013,7 +7198,7 @@
       <c r="F558" s="3"/>
       <c r="G558" s="3"/>
     </row>
-    <row r="559" spans="1:7" ht="15.75" customHeight="1">
+    <row r="559" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -7022,7 +7207,7 @@
       <c r="F559" s="3"/>
       <c r="G559" s="3"/>
     </row>
-    <row r="560" spans="1:7" ht="15.75" customHeight="1">
+    <row r="560" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -7031,7 +7216,7 @@
       <c r="F560" s="3"/>
       <c r="G560" s="3"/>
     </row>
-    <row r="561" spans="1:7" ht="15.75" customHeight="1">
+    <row r="561" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -7040,7 +7225,7 @@
       <c r="F561" s="3"/>
       <c r="G561" s="3"/>
     </row>
-    <row r="562" spans="1:7" ht="15.75" customHeight="1">
+    <row r="562" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -7049,7 +7234,7 @@
       <c r="F562" s="3"/>
       <c r="G562" s="3"/>
     </row>
-    <row r="563" spans="1:7" ht="15.75" customHeight="1">
+    <row r="563" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -7058,7 +7243,7 @@
       <c r="F563" s="3"/>
       <c r="G563" s="3"/>
     </row>
-    <row r="564" spans="1:7" ht="15.75" customHeight="1">
+    <row r="564" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -7067,7 +7252,7 @@
       <c r="F564" s="3"/>
       <c r="G564" s="3"/>
     </row>
-    <row r="565" spans="1:7" ht="15.75" customHeight="1">
+    <row r="565" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -7076,7 +7261,7 @@
       <c r="F565" s="3"/>
       <c r="G565" s="3"/>
     </row>
-    <row r="566" spans="1:7" ht="15.75" customHeight="1">
+    <row r="566" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -7085,7 +7270,7 @@
       <c r="F566" s="3"/>
       <c r="G566" s="3"/>
     </row>
-    <row r="567" spans="1:7" ht="15.75" customHeight="1">
+    <row r="567" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -7094,7 +7279,7 @@
       <c r="F567" s="3"/>
       <c r="G567" s="3"/>
     </row>
-    <row r="568" spans="1:7" ht="15.75" customHeight="1">
+    <row r="568" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -7103,7 +7288,7 @@
       <c r="F568" s="3"/>
       <c r="G568" s="3"/>
     </row>
-    <row r="569" spans="1:7" ht="15.75" customHeight="1">
+    <row r="569" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -7112,7 +7297,7 @@
       <c r="F569" s="3"/>
       <c r="G569" s="3"/>
     </row>
-    <row r="570" spans="1:7" ht="15.75" customHeight="1">
+    <row r="570" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -7121,7 +7306,7 @@
       <c r="F570" s="3"/>
       <c r="G570" s="3"/>
     </row>
-    <row r="571" spans="1:7" ht="15.75" customHeight="1">
+    <row r="571" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -7130,7 +7315,7 @@
       <c r="F571" s="3"/>
       <c r="G571" s="3"/>
     </row>
-    <row r="572" spans="1:7" ht="15.75" customHeight="1">
+    <row r="572" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -7139,7 +7324,7 @@
       <c r="F572" s="3"/>
       <c r="G572" s="3"/>
     </row>
-    <row r="573" spans="1:7" ht="15.75" customHeight="1">
+    <row r="573" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -7148,7 +7333,7 @@
       <c r="F573" s="3"/>
       <c r="G573" s="3"/>
     </row>
-    <row r="574" spans="1:7" ht="15.75" customHeight="1">
+    <row r="574" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -7157,7 +7342,7 @@
       <c r="F574" s="3"/>
       <c r="G574" s="3"/>
     </row>
-    <row r="575" spans="1:7" ht="15.75" customHeight="1">
+    <row r="575" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -7166,7 +7351,7 @@
       <c r="F575" s="3"/>
       <c r="G575" s="3"/>
     </row>
-    <row r="576" spans="1:7" ht="15.75" customHeight="1">
+    <row r="576" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -7175,7 +7360,7 @@
       <c r="F576" s="3"/>
       <c r="G576" s="3"/>
     </row>
-    <row r="577" spans="1:7" ht="15.75" customHeight="1">
+    <row r="577" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -7184,7 +7369,7 @@
       <c r="F577" s="3"/>
       <c r="G577" s="3"/>
     </row>
-    <row r="578" spans="1:7" ht="15.75" customHeight="1">
+    <row r="578" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -7193,7 +7378,7 @@
       <c r="F578" s="3"/>
       <c r="G578" s="3"/>
     </row>
-    <row r="579" spans="1:7" ht="15.75" customHeight="1">
+    <row r="579" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -7202,7 +7387,7 @@
       <c r="F579" s="3"/>
       <c r="G579" s="3"/>
     </row>
-    <row r="580" spans="1:7" ht="15.75" customHeight="1">
+    <row r="580" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -7211,7 +7396,7 @@
       <c r="F580" s="3"/>
       <c r="G580" s="3"/>
     </row>
-    <row r="581" spans="1:7" ht="15.75" customHeight="1">
+    <row r="581" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -7220,7 +7405,7 @@
       <c r="F581" s="3"/>
       <c r="G581" s="3"/>
     </row>
-    <row r="582" spans="1:7" ht="15.75" customHeight="1">
+    <row r="582" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -7229,7 +7414,7 @@
       <c r="F582" s="3"/>
       <c r="G582" s="3"/>
     </row>
-    <row r="583" spans="1:7" ht="15.75" customHeight="1">
+    <row r="583" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -7238,7 +7423,7 @@
       <c r="F583" s="3"/>
       <c r="G583" s="3"/>
     </row>
-    <row r="584" spans="1:7" ht="15.75" customHeight="1">
+    <row r="584" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -7247,7 +7432,7 @@
       <c r="F584" s="3"/>
       <c r="G584" s="3"/>
     </row>
-    <row r="585" spans="1:7" ht="15.75" customHeight="1">
+    <row r="585" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -7256,7 +7441,7 @@
       <c r="F585" s="3"/>
       <c r="G585" s="3"/>
     </row>
-    <row r="586" spans="1:7" ht="15.75" customHeight="1">
+    <row r="586" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -7265,7 +7450,7 @@
       <c r="F586" s="3"/>
       <c r="G586" s="3"/>
     </row>
-    <row r="587" spans="1:7" ht="15.75" customHeight="1">
+    <row r="587" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -7274,7 +7459,7 @@
       <c r="F587" s="3"/>
       <c r="G587" s="3"/>
     </row>
-    <row r="588" spans="1:7" ht="15.75" customHeight="1">
+    <row r="588" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -7283,7 +7468,7 @@
       <c r="F588" s="3"/>
       <c r="G588" s="3"/>
     </row>
-    <row r="589" spans="1:7" ht="15.75" customHeight="1">
+    <row r="589" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -7292,7 +7477,7 @@
       <c r="F589" s="3"/>
       <c r="G589" s="3"/>
     </row>
-    <row r="590" spans="1:7" ht="15.75" customHeight="1">
+    <row r="590" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -7301,7 +7486,7 @@
       <c r="F590" s="3"/>
       <c r="G590" s="3"/>
     </row>
-    <row r="591" spans="1:7" ht="15.75" customHeight="1">
+    <row r="591" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -7310,7 +7495,7 @@
       <c r="F591" s="3"/>
       <c r="G591" s="3"/>
     </row>
-    <row r="592" spans="1:7" ht="15.75" customHeight="1">
+    <row r="592" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -7319,7 +7504,7 @@
       <c r="F592" s="3"/>
       <c r="G592" s="3"/>
     </row>
-    <row r="593" spans="1:7" ht="15.75" customHeight="1">
+    <row r="593" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -7328,7 +7513,7 @@
       <c r="F593" s="3"/>
       <c r="G593" s="3"/>
     </row>
-    <row r="594" spans="1:7" ht="15.75" customHeight="1">
+    <row r="594" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -7337,7 +7522,7 @@
       <c r="F594" s="3"/>
       <c r="G594" s="3"/>
     </row>
-    <row r="595" spans="1:7" ht="15.75" customHeight="1">
+    <row r="595" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -7346,7 +7531,7 @@
       <c r="F595" s="3"/>
       <c r="G595" s="3"/>
     </row>
-    <row r="596" spans="1:7" ht="15.75" customHeight="1">
+    <row r="596" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -7355,7 +7540,7 @@
       <c r="F596" s="3"/>
       <c r="G596" s="3"/>
     </row>
-    <row r="597" spans="1:7" ht="15.75" customHeight="1">
+    <row r="597" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -7364,7 +7549,7 @@
       <c r="F597" s="3"/>
       <c r="G597" s="3"/>
     </row>
-    <row r="598" spans="1:7" ht="15.75" customHeight="1">
+    <row r="598" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -7373,7 +7558,7 @@
       <c r="F598" s="3"/>
       <c r="G598" s="3"/>
     </row>
-    <row r="599" spans="1:7" ht="15.75" customHeight="1">
+    <row r="599" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -7382,7 +7567,7 @@
       <c r="F599" s="3"/>
       <c r="G599" s="3"/>
     </row>
-    <row r="600" spans="1:7" ht="15.75" customHeight="1">
+    <row r="600" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -7391,7 +7576,7 @@
       <c r="F600" s="3"/>
       <c r="G600" s="3"/>
     </row>
-    <row r="601" spans="1:7" ht="15.75" customHeight="1">
+    <row r="601" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -7400,7 +7585,7 @@
       <c r="F601" s="3"/>
       <c r="G601" s="3"/>
     </row>
-    <row r="602" spans="1:7" ht="15.75" customHeight="1">
+    <row r="602" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -7409,7 +7594,7 @@
       <c r="F602" s="3"/>
       <c r="G602" s="3"/>
     </row>
-    <row r="603" spans="1:7" ht="15.75" customHeight="1">
+    <row r="603" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -7418,7 +7603,7 @@
       <c r="F603" s="3"/>
       <c r="G603" s="3"/>
     </row>
-    <row r="604" spans="1:7" ht="15.75" customHeight="1">
+    <row r="604" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -7427,7 +7612,7 @@
       <c r="F604" s="3"/>
       <c r="G604" s="3"/>
     </row>
-    <row r="605" spans="1:7" ht="15.75" customHeight="1">
+    <row r="605" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -7436,7 +7621,7 @@
       <c r="F605" s="3"/>
       <c r="G605" s="3"/>
     </row>
-    <row r="606" spans="1:7" ht="15.75" customHeight="1">
+    <row r="606" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -7445,7 +7630,7 @@
       <c r="F606" s="3"/>
       <c r="G606" s="3"/>
     </row>
-    <row r="607" spans="1:7" ht="15.75" customHeight="1">
+    <row r="607" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -7454,7 +7639,7 @@
       <c r="F607" s="3"/>
       <c r="G607" s="3"/>
     </row>
-    <row r="608" spans="1:7" ht="15.75" customHeight="1">
+    <row r="608" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -7463,7 +7648,7 @@
       <c r="F608" s="3"/>
       <c r="G608" s="3"/>
     </row>
-    <row r="609" spans="1:7" ht="15.75" customHeight="1">
+    <row r="609" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -7472,7 +7657,7 @@
       <c r="F609" s="3"/>
       <c r="G609" s="3"/>
     </row>
-    <row r="610" spans="1:7" ht="15.75" customHeight="1">
+    <row r="610" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -7481,7 +7666,7 @@
       <c r="F610" s="3"/>
       <c r="G610" s="3"/>
     </row>
-    <row r="611" spans="1:7" ht="15.75" customHeight="1">
+    <row r="611" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -7490,7 +7675,7 @@
       <c r="F611" s="3"/>
       <c r="G611" s="3"/>
     </row>
-    <row r="612" spans="1:7" ht="15.75" customHeight="1">
+    <row r="612" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -7499,7 +7684,7 @@
       <c r="F612" s="3"/>
       <c r="G612" s="3"/>
     </row>
-    <row r="613" spans="1:7" ht="15.75" customHeight="1">
+    <row r="613" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -7508,7 +7693,7 @@
       <c r="F613" s="3"/>
       <c r="G613" s="3"/>
     </row>
-    <row r="614" spans="1:7" ht="15.75" customHeight="1">
+    <row r="614" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -7517,7 +7702,7 @@
       <c r="F614" s="3"/>
       <c r="G614" s="3"/>
     </row>
-    <row r="615" spans="1:7" ht="15.75" customHeight="1">
+    <row r="615" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -7526,7 +7711,7 @@
       <c r="F615" s="3"/>
       <c r="G615" s="3"/>
     </row>
-    <row r="616" spans="1:7" ht="15.75" customHeight="1">
+    <row r="616" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -7535,7 +7720,7 @@
       <c r="F616" s="3"/>
       <c r="G616" s="3"/>
     </row>
-    <row r="617" spans="1:7" ht="15.75" customHeight="1">
+    <row r="617" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -7544,7 +7729,7 @@
       <c r="F617" s="3"/>
       <c r="G617" s="3"/>
     </row>
-    <row r="618" spans="1:7" ht="15.75" customHeight="1">
+    <row r="618" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -7553,7 +7738,7 @@
       <c r="F618" s="3"/>
       <c r="G618" s="3"/>
     </row>
-    <row r="619" spans="1:7" ht="15.75" customHeight="1">
+    <row r="619" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -7562,7 +7747,7 @@
       <c r="F619" s="3"/>
       <c r="G619" s="3"/>
     </row>
-    <row r="620" spans="1:7" ht="15.75" customHeight="1">
+    <row r="620" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -7571,7 +7756,7 @@
       <c r="F620" s="3"/>
       <c r="G620" s="3"/>
     </row>
-    <row r="621" spans="1:7" ht="15.75" customHeight="1">
+    <row r="621" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -7580,7 +7765,7 @@
       <c r="F621" s="3"/>
       <c r="G621" s="3"/>
     </row>
-    <row r="622" spans="1:7" ht="15.75" customHeight="1">
+    <row r="622" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -7589,7 +7774,7 @@
       <c r="F622" s="3"/>
       <c r="G622" s="3"/>
     </row>
-    <row r="623" spans="1:7" ht="15.75" customHeight="1">
+    <row r="623" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -7598,7 +7783,7 @@
       <c r="F623" s="3"/>
       <c r="G623" s="3"/>
     </row>
-    <row r="624" spans="1:7" ht="15.75" customHeight="1">
+    <row r="624" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -7607,7 +7792,7 @@
       <c r="F624" s="3"/>
       <c r="G624" s="3"/>
     </row>
-    <row r="625" spans="1:7" ht="15.75" customHeight="1">
+    <row r="625" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -7616,7 +7801,7 @@
       <c r="F625" s="3"/>
       <c r="G625" s="3"/>
     </row>
-    <row r="626" spans="1:7" ht="15.75" customHeight="1">
+    <row r="626" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -7625,7 +7810,7 @@
       <c r="F626" s="3"/>
       <c r="G626" s="3"/>
     </row>
-    <row r="627" spans="1:7" ht="15.75" customHeight="1">
+    <row r="627" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -7634,7 +7819,7 @@
       <c r="F627" s="3"/>
       <c r="G627" s="3"/>
     </row>
-    <row r="628" spans="1:7" ht="15.75" customHeight="1">
+    <row r="628" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -7643,7 +7828,7 @@
       <c r="F628" s="3"/>
       <c r="G628" s="3"/>
     </row>
-    <row r="629" spans="1:7" ht="15.75" customHeight="1">
+    <row r="629" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -7652,7 +7837,7 @@
       <c r="F629" s="3"/>
       <c r="G629" s="3"/>
     </row>
-    <row r="630" spans="1:7" ht="15.75" customHeight="1">
+    <row r="630" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -7661,7 +7846,7 @@
       <c r="F630" s="3"/>
       <c r="G630" s="3"/>
     </row>
-    <row r="631" spans="1:7" ht="15.75" customHeight="1">
+    <row r="631" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -7670,7 +7855,7 @@
       <c r="F631" s="3"/>
       <c r="G631" s="3"/>
     </row>
-    <row r="632" spans="1:7" ht="15.75" customHeight="1">
+    <row r="632" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -7679,7 +7864,7 @@
       <c r="F632" s="3"/>
       <c r="G632" s="3"/>
     </row>
-    <row r="633" spans="1:7" ht="15.75" customHeight="1">
+    <row r="633" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -7688,7 +7873,7 @@
       <c r="F633" s="3"/>
       <c r="G633" s="3"/>
     </row>
-    <row r="634" spans="1:7" ht="15.75" customHeight="1">
+    <row r="634" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -7697,7 +7882,7 @@
       <c r="F634" s="3"/>
       <c r="G634" s="3"/>
     </row>
-    <row r="635" spans="1:7" ht="15.75" customHeight="1">
+    <row r="635" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -7706,7 +7891,7 @@
       <c r="F635" s="3"/>
       <c r="G635" s="3"/>
     </row>
-    <row r="636" spans="1:7" ht="15.75" customHeight="1">
+    <row r="636" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -7715,7 +7900,7 @@
       <c r="F636" s="3"/>
       <c r="G636" s="3"/>
     </row>
-    <row r="637" spans="1:7" ht="15.75" customHeight="1">
+    <row r="637" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -7724,7 +7909,7 @@
       <c r="F637" s="3"/>
       <c r="G637" s="3"/>
     </row>
-    <row r="638" spans="1:7" ht="15.75" customHeight="1">
+    <row r="638" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -7733,7 +7918,7 @@
       <c r="F638" s="3"/>
       <c r="G638" s="3"/>
     </row>
-    <row r="639" spans="1:7" ht="15.75" customHeight="1">
+    <row r="639" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -7742,7 +7927,7 @@
       <c r="F639" s="3"/>
       <c r="G639" s="3"/>
     </row>
-    <row r="640" spans="1:7" ht="15.75" customHeight="1">
+    <row r="640" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -7751,7 +7936,7 @@
       <c r="F640" s="3"/>
       <c r="G640" s="3"/>
     </row>
-    <row r="641" spans="1:7" ht="15.75" customHeight="1">
+    <row r="641" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -7760,7 +7945,7 @@
       <c r="F641" s="3"/>
       <c r="G641" s="3"/>
     </row>
-    <row r="642" spans="1:7" ht="15.75" customHeight="1">
+    <row r="642" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -7769,7 +7954,7 @@
       <c r="F642" s="3"/>
       <c r="G642" s="3"/>
     </row>
-    <row r="643" spans="1:7" ht="15.75" customHeight="1">
+    <row r="643" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -7778,7 +7963,7 @@
       <c r="F643" s="3"/>
       <c r="G643" s="3"/>
     </row>
-    <row r="644" spans="1:7" ht="15.75" customHeight="1">
+    <row r="644" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -7787,7 +7972,7 @@
       <c r="F644" s="3"/>
       <c r="G644" s="3"/>
     </row>
-    <row r="645" spans="1:7" ht="15.75" customHeight="1">
+    <row r="645" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -7796,7 +7981,7 @@
       <c r="F645" s="3"/>
       <c r="G645" s="3"/>
     </row>
-    <row r="646" spans="1:7" ht="15.75" customHeight="1">
+    <row r="646" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -7805,7 +7990,7 @@
       <c r="F646" s="3"/>
       <c r="G646" s="3"/>
     </row>
-    <row r="647" spans="1:7" ht="15.75" customHeight="1">
+    <row r="647" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -7814,7 +7999,7 @@
       <c r="F647" s="3"/>
       <c r="G647" s="3"/>
     </row>
-    <row r="648" spans="1:7" ht="15.75" customHeight="1">
+    <row r="648" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -7823,7 +8008,7 @@
       <c r="F648" s="3"/>
       <c r="G648" s="3"/>
     </row>
-    <row r="649" spans="1:7" ht="15.75" customHeight="1">
+    <row r="649" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -7832,7 +8017,7 @@
       <c r="F649" s="3"/>
       <c r="G649" s="3"/>
     </row>
-    <row r="650" spans="1:7" ht="15.75" customHeight="1">
+    <row r="650" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -7841,7 +8026,7 @@
       <c r="F650" s="3"/>
       <c r="G650" s="3"/>
     </row>
-    <row r="651" spans="1:7" ht="15.75" customHeight="1">
+    <row r="651" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -7850,7 +8035,7 @@
       <c r="F651" s="3"/>
       <c r="G651" s="3"/>
     </row>
-    <row r="652" spans="1:7" ht="15.75" customHeight="1">
+    <row r="652" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -7859,7 +8044,7 @@
       <c r="F652" s="3"/>
       <c r="G652" s="3"/>
     </row>
-    <row r="653" spans="1:7" ht="15.75" customHeight="1">
+    <row r="653" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -7868,7 +8053,7 @@
       <c r="F653" s="3"/>
       <c r="G653" s="3"/>
     </row>
-    <row r="654" spans="1:7" ht="15.75" customHeight="1">
+    <row r="654" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -7877,7 +8062,7 @@
       <c r="F654" s="3"/>
       <c r="G654" s="3"/>
     </row>
-    <row r="655" spans="1:7" ht="15.75" customHeight="1">
+    <row r="655" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -7886,7 +8071,7 @@
       <c r="F655" s="3"/>
       <c r="G655" s="3"/>
     </row>
-    <row r="656" spans="1:7" ht="15.75" customHeight="1">
+    <row r="656" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -7895,7 +8080,7 @@
       <c r="F656" s="3"/>
       <c r="G656" s="3"/>
     </row>
-    <row r="657" spans="1:7" ht="15.75" customHeight="1">
+    <row r="657" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -7904,7 +8089,7 @@
       <c r="F657" s="3"/>
       <c r="G657" s="3"/>
     </row>
-    <row r="658" spans="1:7" ht="15.75" customHeight="1">
+    <row r="658" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -7913,7 +8098,7 @@
       <c r="F658" s="3"/>
       <c r="G658" s="3"/>
     </row>
-    <row r="659" spans="1:7" ht="15.75" customHeight="1">
+    <row r="659" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -7922,7 +8107,7 @@
       <c r="F659" s="3"/>
       <c r="G659" s="3"/>
     </row>
-    <row r="660" spans="1:7" ht="15.75" customHeight="1">
+    <row r="660" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -7931,7 +8116,7 @@
       <c r="F660" s="3"/>
       <c r="G660" s="3"/>
     </row>
-    <row r="661" spans="1:7" ht="15.75" customHeight="1">
+    <row r="661" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -7940,7 +8125,7 @@
       <c r="F661" s="3"/>
       <c r="G661" s="3"/>
     </row>
-    <row r="662" spans="1:7" ht="15.75" customHeight="1">
+    <row r="662" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -7949,7 +8134,7 @@
       <c r="F662" s="3"/>
       <c r="G662" s="3"/>
     </row>
-    <row r="663" spans="1:7" ht="15.75" customHeight="1">
+    <row r="663" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -7958,7 +8143,7 @@
       <c r="F663" s="3"/>
       <c r="G663" s="3"/>
     </row>
-    <row r="664" spans="1:7" ht="15.75" customHeight="1">
+    <row r="664" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -7967,7 +8152,7 @@
       <c r="F664" s="3"/>
       <c r="G664" s="3"/>
     </row>
-    <row r="665" spans="1:7" ht="15.75" customHeight="1">
+    <row r="665" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -7976,7 +8161,7 @@
       <c r="F665" s="3"/>
       <c r="G665" s="3"/>
     </row>
-    <row r="666" spans="1:7" ht="15.75" customHeight="1">
+    <row r="666" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -7985,7 +8170,7 @@
       <c r="F666" s="3"/>
       <c r="G666" s="3"/>
     </row>
-    <row r="667" spans="1:7" ht="15.75" customHeight="1">
+    <row r="667" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -7994,7 +8179,7 @@
       <c r="F667" s="3"/>
       <c r="G667" s="3"/>
     </row>
-    <row r="668" spans="1:7" ht="15.75" customHeight="1">
+    <row r="668" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -8003,7 +8188,7 @@
       <c r="F668" s="3"/>
       <c r="G668" s="3"/>
     </row>
-    <row r="669" spans="1:7" ht="15.75" customHeight="1">
+    <row r="669" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -8012,7 +8197,7 @@
       <c r="F669" s="3"/>
       <c r="G669" s="3"/>
     </row>
-    <row r="670" spans="1:7" ht="15.75" customHeight="1">
+    <row r="670" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -8021,7 +8206,7 @@
       <c r="F670" s="3"/>
       <c r="G670" s="3"/>
     </row>
-    <row r="671" spans="1:7" ht="15.75" customHeight="1">
+    <row r="671" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -8030,7 +8215,7 @@
       <c r="F671" s="3"/>
       <c r="G671" s="3"/>
     </row>
-    <row r="672" spans="1:7" ht="15.75" customHeight="1">
+    <row r="672" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -8039,7 +8224,7 @@
       <c r="F672" s="3"/>
       <c r="G672" s="3"/>
     </row>
-    <row r="673" spans="1:7" ht="15.75" customHeight="1">
+    <row r="673" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -8048,7 +8233,7 @@
       <c r="F673" s="3"/>
       <c r="G673" s="3"/>
     </row>
-    <row r="674" spans="1:7" ht="15.75" customHeight="1">
+    <row r="674" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -8057,7 +8242,7 @@
       <c r="F674" s="3"/>
       <c r="G674" s="3"/>
     </row>
-    <row r="675" spans="1:7" ht="15.75" customHeight="1">
+    <row r="675" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -8066,7 +8251,7 @@
       <c r="F675" s="3"/>
       <c r="G675" s="3"/>
     </row>
-    <row r="676" spans="1:7" ht="15.75" customHeight="1">
+    <row r="676" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -8075,7 +8260,7 @@
       <c r="F676" s="3"/>
       <c r="G676" s="3"/>
     </row>
-    <row r="677" spans="1:7" ht="15.75" customHeight="1">
+    <row r="677" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -8084,7 +8269,7 @@
       <c r="F677" s="3"/>
       <c r="G677" s="3"/>
     </row>
-    <row r="678" spans="1:7" ht="15.75" customHeight="1">
+    <row r="678" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -8093,7 +8278,7 @@
       <c r="F678" s="3"/>
       <c r="G678" s="3"/>
     </row>
-    <row r="679" spans="1:7" ht="15.75" customHeight="1">
+    <row r="679" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -8102,7 +8287,7 @@
       <c r="F679" s="3"/>
       <c r="G679" s="3"/>
     </row>
-    <row r="680" spans="1:7" ht="15.75" customHeight="1">
+    <row r="680" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -8111,7 +8296,7 @@
       <c r="F680" s="3"/>
       <c r="G680" s="3"/>
     </row>
-    <row r="681" spans="1:7" ht="15.75" customHeight="1">
+    <row r="681" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -8120,7 +8305,7 @@
       <c r="F681" s="3"/>
       <c r="G681" s="3"/>
     </row>
-    <row r="682" spans="1:7" ht="15.75" customHeight="1">
+    <row r="682" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -8129,7 +8314,7 @@
       <c r="F682" s="3"/>
       <c r="G682" s="3"/>
     </row>
-    <row r="683" spans="1:7" ht="15.75" customHeight="1">
+    <row r="683" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -8138,7 +8323,7 @@
       <c r="F683" s="3"/>
       <c r="G683" s="3"/>
     </row>
-    <row r="684" spans="1:7" ht="15.75" customHeight="1">
+    <row r="684" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -8147,7 +8332,7 @@
       <c r="F684" s="3"/>
       <c r="G684" s="3"/>
     </row>
-    <row r="685" spans="1:7" ht="15.75" customHeight="1">
+    <row r="685" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -8156,7 +8341,7 @@
       <c r="F685" s="3"/>
       <c r="G685" s="3"/>
     </row>
-    <row r="686" spans="1:7" ht="15.75" customHeight="1">
+    <row r="686" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -8165,7 +8350,7 @@
       <c r="F686" s="3"/>
       <c r="G686" s="3"/>
     </row>
-    <row r="687" spans="1:7" ht="15.75" customHeight="1">
+    <row r="687" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -8174,7 +8359,7 @@
       <c r="F687" s="3"/>
       <c r="G687" s="3"/>
     </row>
-    <row r="688" spans="1:7" ht="15.75" customHeight="1">
+    <row r="688" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -8183,7 +8368,7 @@
       <c r="F688" s="3"/>
       <c r="G688" s="3"/>
     </row>
-    <row r="689" spans="1:7" ht="15.75" customHeight="1">
+    <row r="689" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -8192,7 +8377,7 @@
       <c r="F689" s="3"/>
       <c r="G689" s="3"/>
     </row>
-    <row r="690" spans="1:7" ht="15.75" customHeight="1">
+    <row r="690" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -8201,7 +8386,7 @@
       <c r="F690" s="3"/>
       <c r="G690" s="3"/>
     </row>
-    <row r="691" spans="1:7" ht="15.75" customHeight="1">
+    <row r="691" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -8210,7 +8395,7 @@
       <c r="F691" s="3"/>
       <c r="G691" s="3"/>
     </row>
-    <row r="692" spans="1:7" ht="15.75" customHeight="1">
+    <row r="692" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -8219,7 +8404,7 @@
       <c r="F692" s="3"/>
       <c r="G692" s="3"/>
     </row>
-    <row r="693" spans="1:7" ht="15.75" customHeight="1">
+    <row r="693" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -8228,7 +8413,7 @@
       <c r="F693" s="3"/>
       <c r="G693" s="3"/>
     </row>
-    <row r="694" spans="1:7" ht="15.75" customHeight="1">
+    <row r="694" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -8237,7 +8422,7 @@
       <c r="F694" s="3"/>
       <c r="G694" s="3"/>
     </row>
-    <row r="695" spans="1:7" ht="15.75" customHeight="1">
+    <row r="695" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -8246,7 +8431,7 @@
       <c r="F695" s="3"/>
       <c r="G695" s="3"/>
     </row>
-    <row r="696" spans="1:7" ht="15.75" customHeight="1">
+    <row r="696" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -8255,7 +8440,7 @@
       <c r="F696" s="3"/>
       <c r="G696" s="3"/>
     </row>
-    <row r="697" spans="1:7" ht="15.75" customHeight="1">
+    <row r="697" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -8264,7 +8449,7 @@
       <c r="F697" s="3"/>
       <c r="G697" s="3"/>
     </row>
-    <row r="698" spans="1:7" ht="15.75" customHeight="1">
+    <row r="698" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -8273,7 +8458,7 @@
       <c r="F698" s="3"/>
       <c r="G698" s="3"/>
     </row>
-    <row r="699" spans="1:7" ht="15.75" customHeight="1">
+    <row r="699" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -8282,7 +8467,7 @@
       <c r="F699" s="3"/>
       <c r="G699" s="3"/>
     </row>
-    <row r="700" spans="1:7" ht="15.75" customHeight="1">
+    <row r="700" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -8291,7 +8476,7 @@
       <c r="F700" s="3"/>
       <c r="G700" s="3"/>
     </row>
-    <row r="701" spans="1:7" ht="15.75" customHeight="1">
+    <row r="701" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -8300,7 +8485,7 @@
       <c r="F701" s="3"/>
       <c r="G701" s="3"/>
     </row>
-    <row r="702" spans="1:7" ht="15.75" customHeight="1">
+    <row r="702" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -8309,7 +8494,7 @@
       <c r="F702" s="3"/>
       <c r="G702" s="3"/>
     </row>
-    <row r="703" spans="1:7" ht="15.75" customHeight="1">
+    <row r="703" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -8318,7 +8503,7 @@
       <c r="F703" s="3"/>
       <c r="G703" s="3"/>
     </row>
-    <row r="704" spans="1:7" ht="15.75" customHeight="1">
+    <row r="704" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -8327,7 +8512,7 @@
       <c r="F704" s="3"/>
       <c r="G704" s="3"/>
     </row>
-    <row r="705" spans="1:7" ht="15.75" customHeight="1">
+    <row r="705" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -8336,7 +8521,7 @@
       <c r="F705" s="3"/>
       <c r="G705" s="3"/>
     </row>
-    <row r="706" spans="1:7" ht="15.75" customHeight="1">
+    <row r="706" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -8345,7 +8530,7 @@
       <c r="F706" s="3"/>
       <c r="G706" s="3"/>
     </row>
-    <row r="707" spans="1:7" ht="15.75" customHeight="1">
+    <row r="707" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -8354,7 +8539,7 @@
       <c r="F707" s="3"/>
       <c r="G707" s="3"/>
     </row>
-    <row r="708" spans="1:7" ht="15.75" customHeight="1">
+    <row r="708" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -8363,7 +8548,7 @@
       <c r="F708" s="3"/>
       <c r="G708" s="3"/>
     </row>
-    <row r="709" spans="1:7" ht="15.75" customHeight="1">
+    <row r="709" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -8372,7 +8557,7 @@
       <c r="F709" s="3"/>
       <c r="G709" s="3"/>
     </row>
-    <row r="710" spans="1:7" ht="15.75" customHeight="1">
+    <row r="710" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -8381,7 +8566,7 @@
       <c r="F710" s="3"/>
       <c r="G710" s="3"/>
     </row>
-    <row r="711" spans="1:7" ht="15.75" customHeight="1">
+    <row r="711" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -8390,7 +8575,7 @@
       <c r="F711" s="3"/>
       <c r="G711" s="3"/>
     </row>
-    <row r="712" spans="1:7" ht="15.75" customHeight="1">
+    <row r="712" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -8399,7 +8584,7 @@
       <c r="F712" s="3"/>
       <c r="G712" s="3"/>
     </row>
-    <row r="713" spans="1:7" ht="15.75" customHeight="1">
+    <row r="713" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -8408,7 +8593,7 @@
       <c r="F713" s="3"/>
       <c r="G713" s="3"/>
     </row>
-    <row r="714" spans="1:7" ht="15.75" customHeight="1">
+    <row r="714" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -8417,7 +8602,7 @@
       <c r="F714" s="3"/>
       <c r="G714" s="3"/>
     </row>
-    <row r="715" spans="1:7" ht="15.75" customHeight="1">
+    <row r="715" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -8426,7 +8611,7 @@
       <c r="F715" s="3"/>
       <c r="G715" s="3"/>
     </row>
-    <row r="716" spans="1:7" ht="15.75" customHeight="1">
+    <row r="716" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -8435,7 +8620,7 @@
       <c r="F716" s="3"/>
       <c r="G716" s="3"/>
     </row>
-    <row r="717" spans="1:7" ht="15.75" customHeight="1">
+    <row r="717" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -8444,7 +8629,7 @@
       <c r="F717" s="3"/>
       <c r="G717" s="3"/>
     </row>
-    <row r="718" spans="1:7" ht="15.75" customHeight="1">
+    <row r="718" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -8453,7 +8638,7 @@
       <c r="F718" s="3"/>
       <c r="G718" s="3"/>
     </row>
-    <row r="719" spans="1:7" ht="15.75" customHeight="1">
+    <row r="719" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -8462,7 +8647,7 @@
       <c r="F719" s="3"/>
       <c r="G719" s="3"/>
     </row>
-    <row r="720" spans="1:7" ht="15.75" customHeight="1">
+    <row r="720" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -8471,7 +8656,7 @@
       <c r="F720" s="3"/>
       <c r="G720" s="3"/>
     </row>
-    <row r="721" spans="1:7" ht="15.75" customHeight="1">
+    <row r="721" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -8480,7 +8665,7 @@
       <c r="F721" s="3"/>
       <c r="G721" s="3"/>
     </row>
-    <row r="722" spans="1:7" ht="15.75" customHeight="1">
+    <row r="722" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -8489,7 +8674,7 @@
       <c r="F722" s="3"/>
       <c r="G722" s="3"/>
     </row>
-    <row r="723" spans="1:7" ht="15.75" customHeight="1">
+    <row r="723" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -8498,7 +8683,7 @@
       <c r="F723" s="3"/>
       <c r="G723" s="3"/>
     </row>
-    <row r="724" spans="1:7" ht="15.75" customHeight="1">
+    <row r="724" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -8507,7 +8692,7 @@
       <c r="F724" s="3"/>
       <c r="G724" s="3"/>
     </row>
-    <row r="725" spans="1:7" ht="15.75" customHeight="1">
+    <row r="725" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -8516,7 +8701,7 @@
       <c r="F725" s="3"/>
       <c r="G725" s="3"/>
     </row>
-    <row r="726" spans="1:7" ht="15.75" customHeight="1">
+    <row r="726" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -8525,7 +8710,7 @@
       <c r="F726" s="3"/>
       <c r="G726" s="3"/>
     </row>
-    <row r="727" spans="1:7" ht="15.75" customHeight="1">
+    <row r="727" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -8534,7 +8719,7 @@
       <c r="F727" s="3"/>
       <c r="G727" s="3"/>
     </row>
-    <row r="728" spans="1:7" ht="15.75" customHeight="1">
+    <row r="728" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -8543,7 +8728,7 @@
       <c r="F728" s="3"/>
       <c r="G728" s="3"/>
     </row>
-    <row r="729" spans="1:7" ht="15.75" customHeight="1">
+    <row r="729" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -8552,7 +8737,7 @@
       <c r="F729" s="3"/>
       <c r="G729" s="3"/>
     </row>
-    <row r="730" spans="1:7" ht="15.75" customHeight="1">
+    <row r="730" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -8561,7 +8746,7 @@
       <c r="F730" s="3"/>
       <c r="G730" s="3"/>
     </row>
-    <row r="731" spans="1:7" ht="15.75" customHeight="1">
+    <row r="731" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -8570,7 +8755,7 @@
       <c r="F731" s="3"/>
       <c r="G731" s="3"/>
     </row>
-    <row r="732" spans="1:7" ht="15.75" customHeight="1">
+    <row r="732" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -8579,7 +8764,7 @@
       <c r="F732" s="3"/>
       <c r="G732" s="3"/>
     </row>
-    <row r="733" spans="1:7" ht="15.75" customHeight="1">
+    <row r="733" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -8588,7 +8773,7 @@
       <c r="F733" s="3"/>
       <c r="G733" s="3"/>
     </row>
-    <row r="734" spans="1:7" ht="15.75" customHeight="1">
+    <row r="734" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -8597,7 +8782,7 @@
       <c r="F734" s="3"/>
       <c r="G734" s="3"/>
     </row>
-    <row r="735" spans="1:7" ht="15.75" customHeight="1">
+    <row r="735" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -8606,7 +8791,7 @@
       <c r="F735" s="3"/>
       <c r="G735" s="3"/>
     </row>
-    <row r="736" spans="1:7" ht="15.75" customHeight="1">
+    <row r="736" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -8615,7 +8800,7 @@
       <c r="F736" s="3"/>
       <c r="G736" s="3"/>
     </row>
-    <row r="737" spans="1:7" ht="15.75" customHeight="1">
+    <row r="737" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -8624,7 +8809,7 @@
       <c r="F737" s="3"/>
       <c r="G737" s="3"/>
     </row>
-    <row r="738" spans="1:7" ht="15.75" customHeight="1">
+    <row r="738" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -8633,7 +8818,7 @@
       <c r="F738" s="3"/>
       <c r="G738" s="3"/>
     </row>
-    <row r="739" spans="1:7" ht="15.75" customHeight="1">
+    <row r="739" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -8642,7 +8827,7 @@
       <c r="F739" s="3"/>
       <c r="G739" s="3"/>
     </row>
-    <row r="740" spans="1:7" ht="15.75" customHeight="1">
+    <row r="740" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -8651,7 +8836,7 @@
       <c r="F740" s="3"/>
       <c r="G740" s="3"/>
     </row>
-    <row r="741" spans="1:7" ht="15.75" customHeight="1">
+    <row r="741" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -8660,7 +8845,7 @@
       <c r="F741" s="3"/>
       <c r="G741" s="3"/>
     </row>
-    <row r="742" spans="1:7" ht="15.75" customHeight="1">
+    <row r="742" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -8669,7 +8854,7 @@
       <c r="F742" s="3"/>
       <c r="G742" s="3"/>
     </row>
-    <row r="743" spans="1:7" ht="15.75" customHeight="1">
+    <row r="743" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -8678,7 +8863,7 @@
       <c r="F743" s="3"/>
       <c r="G743" s="3"/>
     </row>
-    <row r="744" spans="1:7" ht="15.75" customHeight="1">
+    <row r="744" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -8687,7 +8872,7 @@
       <c r="F744" s="3"/>
       <c r="G744" s="3"/>
     </row>
-    <row r="745" spans="1:7" ht="15.75" customHeight="1">
+    <row r="745" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -8696,7 +8881,7 @@
       <c r="F745" s="3"/>
       <c r="G745" s="3"/>
     </row>
-    <row r="746" spans="1:7" ht="15.75" customHeight="1">
+    <row r="746" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -8705,7 +8890,7 @@
       <c r="F746" s="3"/>
       <c r="G746" s="3"/>
     </row>
-    <row r="747" spans="1:7" ht="15.75" customHeight="1">
+    <row r="747" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -8714,7 +8899,7 @@
       <c r="F747" s="3"/>
       <c r="G747" s="3"/>
     </row>
-    <row r="748" spans="1:7" ht="15.75" customHeight="1">
+    <row r="748" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -8723,7 +8908,7 @@
       <c r="F748" s="3"/>
       <c r="G748" s="3"/>
     </row>
-    <row r="749" spans="1:7" ht="15.75" customHeight="1">
+    <row r="749" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -8732,7 +8917,7 @@
       <c r="F749" s="3"/>
       <c r="G749" s="3"/>
     </row>
-    <row r="750" spans="1:7" ht="15.75" customHeight="1">
+    <row r="750" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -8741,7 +8926,7 @@
       <c r="F750" s="3"/>
       <c r="G750" s="3"/>
     </row>
-    <row r="751" spans="1:7" ht="15.75" customHeight="1">
+    <row r="751" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -8750,7 +8935,7 @@
       <c r="F751" s="3"/>
       <c r="G751" s="3"/>
     </row>
-    <row r="752" spans="1:7" ht="15.75" customHeight="1">
+    <row r="752" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -8759,7 +8944,7 @@
       <c r="F752" s="3"/>
       <c r="G752" s="3"/>
     </row>
-    <row r="753" spans="1:7" ht="15.75" customHeight="1">
+    <row r="753" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -8768,7 +8953,7 @@
       <c r="F753" s="3"/>
       <c r="G753" s="3"/>
     </row>
-    <row r="754" spans="1:7" ht="15.75" customHeight="1">
+    <row r="754" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -8777,7 +8962,7 @@
       <c r="F754" s="3"/>
       <c r="G754" s="3"/>
     </row>
-    <row r="755" spans="1:7" ht="15.75" customHeight="1">
+    <row r="755" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -8786,7 +8971,7 @@
       <c r="F755" s="3"/>
       <c r="G755" s="3"/>
     </row>
-    <row r="756" spans="1:7" ht="15.75" customHeight="1">
+    <row r="756" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -8795,7 +8980,7 @@
       <c r="F756" s="3"/>
       <c r="G756" s="3"/>
     </row>
-    <row r="757" spans="1:7" ht="15.75" customHeight="1">
+    <row r="757" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -8804,7 +8989,7 @@
       <c r="F757" s="3"/>
       <c r="G757" s="3"/>
     </row>
-    <row r="758" spans="1:7" ht="15.75" customHeight="1">
+    <row r="758" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -8813,7 +8998,7 @@
       <c r="F758" s="3"/>
       <c r="G758" s="3"/>
     </row>
-    <row r="759" spans="1:7" ht="15.75" customHeight="1">
+    <row r="759" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -8822,7 +9007,7 @@
       <c r="F759" s="3"/>
       <c r="G759" s="3"/>
     </row>
-    <row r="760" spans="1:7" ht="15.75" customHeight="1">
+    <row r="760" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -8831,7 +9016,7 @@
       <c r="F760" s="3"/>
       <c r="G760" s="3"/>
     </row>
-    <row r="761" spans="1:7" ht="15.75" customHeight="1">
+    <row r="761" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -8840,7 +9025,7 @@
       <c r="F761" s="3"/>
       <c r="G761" s="3"/>
     </row>
-    <row r="762" spans="1:7" ht="15.75" customHeight="1">
+    <row r="762" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -8849,7 +9034,7 @@
       <c r="F762" s="3"/>
       <c r="G762" s="3"/>
     </row>
-    <row r="763" spans="1:7" ht="15.75" customHeight="1">
+    <row r="763" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -8858,7 +9043,7 @@
       <c r="F763" s="3"/>
       <c r="G763" s="3"/>
     </row>
-    <row r="764" spans="1:7" ht="15.75" customHeight="1">
+    <row r="764" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -8867,7 +9052,7 @@
       <c r="F764" s="3"/>
       <c r="G764" s="3"/>
     </row>
-    <row r="765" spans="1:7" ht="15.75" customHeight="1">
+    <row r="765" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -8876,7 +9061,7 @@
       <c r="F765" s="3"/>
       <c r="G765" s="3"/>
     </row>
-    <row r="766" spans="1:7" ht="15.75" customHeight="1">
+    <row r="766" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -8885,7 +9070,7 @@
       <c r="F766" s="3"/>
       <c r="G766" s="3"/>
     </row>
-    <row r="767" spans="1:7" ht="15.75" customHeight="1">
+    <row r="767" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -8894,7 +9079,7 @@
       <c r="F767" s="3"/>
       <c r="G767" s="3"/>
     </row>
-    <row r="768" spans="1:7" ht="15.75" customHeight="1">
+    <row r="768" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -8903,7 +9088,7 @@
       <c r="F768" s="3"/>
       <c r="G768" s="3"/>
     </row>
-    <row r="769" spans="1:7" ht="15.75" customHeight="1">
+    <row r="769" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -8912,7 +9097,7 @@
       <c r="F769" s="3"/>
       <c r="G769" s="3"/>
     </row>
-    <row r="770" spans="1:7" ht="15.75" customHeight="1">
+    <row r="770" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -8921,7 +9106,7 @@
       <c r="F770" s="3"/>
       <c r="G770" s="3"/>
     </row>
-    <row r="771" spans="1:7" ht="15.75" customHeight="1">
+    <row r="771" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -8930,7 +9115,7 @@
       <c r="F771" s="3"/>
       <c r="G771" s="3"/>
     </row>
-    <row r="772" spans="1:7" ht="15.75" customHeight="1">
+    <row r="772" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -8939,7 +9124,7 @@
       <c r="F772" s="3"/>
       <c r="G772" s="3"/>
     </row>
-    <row r="773" spans="1:7" ht="15.75" customHeight="1">
+    <row r="773" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -8948,7 +9133,7 @@
       <c r="F773" s="3"/>
       <c r="G773" s="3"/>
     </row>
-    <row r="774" spans="1:7" ht="15.75" customHeight="1">
+    <row r="774" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -8957,7 +9142,7 @@
       <c r="F774" s="3"/>
       <c r="G774" s="3"/>
     </row>
-    <row r="775" spans="1:7" ht="15.75" customHeight="1">
+    <row r="775" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -8966,7 +9151,7 @@
       <c r="F775" s="3"/>
       <c r="G775" s="3"/>
     </row>
-    <row r="776" spans="1:7" ht="15.75" customHeight="1">
+    <row r="776" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -8975,7 +9160,7 @@
       <c r="F776" s="3"/>
       <c r="G776" s="3"/>
     </row>
-    <row r="777" spans="1:7" ht="15.75" customHeight="1">
+    <row r="777" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -8984,7 +9169,7 @@
       <c r="F777" s="3"/>
       <c r="G777" s="3"/>
     </row>
-    <row r="778" spans="1:7" ht="15.75" customHeight="1">
+    <row r="778" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -8993,7 +9178,7 @@
       <c r="F778" s="3"/>
       <c r="G778" s="3"/>
     </row>
-    <row r="779" spans="1:7" ht="15.75" customHeight="1">
+    <row r="779" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -9002,7 +9187,7 @@
       <c r="F779" s="3"/>
       <c r="G779" s="3"/>
     </row>
-    <row r="780" spans="1:7" ht="15.75" customHeight="1">
+    <row r="780" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -9011,7 +9196,7 @@
       <c r="F780" s="3"/>
       <c r="G780" s="3"/>
     </row>
-    <row r="781" spans="1:7" ht="15.75" customHeight="1">
+    <row r="781" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -9020,7 +9205,7 @@
       <c r="F781" s="3"/>
       <c r="G781" s="3"/>
     </row>
-    <row r="782" spans="1:7" ht="15.75" customHeight="1">
+    <row r="782" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -9029,7 +9214,7 @@
       <c r="F782" s="3"/>
       <c r="G782" s="3"/>
     </row>
-    <row r="783" spans="1:7" ht="15.75" customHeight="1">
+    <row r="783" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -9038,7 +9223,7 @@
       <c r="F783" s="3"/>
       <c r="G783" s="3"/>
     </row>
-    <row r="784" spans="1:7" ht="15.75" customHeight="1">
+    <row r="784" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -9047,7 +9232,7 @@
       <c r="F784" s="3"/>
       <c r="G784" s="3"/>
     </row>
-    <row r="785" spans="1:7" ht="15.75" customHeight="1">
+    <row r="785" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -9056,7 +9241,7 @@
       <c r="F785" s="3"/>
       <c r="G785" s="3"/>
     </row>
-    <row r="786" spans="1:7" ht="15.75" customHeight="1">
+    <row r="786" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -9065,7 +9250,7 @@
       <c r="F786" s="3"/>
       <c r="G786" s="3"/>
     </row>
-    <row r="787" spans="1:7" ht="15.75" customHeight="1">
+    <row r="787" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -9074,7 +9259,7 @@
       <c r="F787" s="3"/>
       <c r="G787" s="3"/>
     </row>
-    <row r="788" spans="1:7" ht="15.75" customHeight="1">
+    <row r="788" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -9083,7 +9268,7 @@
       <c r="F788" s="3"/>
       <c r="G788" s="3"/>
     </row>
-    <row r="789" spans="1:7" ht="15.75" customHeight="1">
+    <row r="789" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -9092,7 +9277,7 @@
       <c r="F789" s="3"/>
       <c r="G789" s="3"/>
     </row>
-    <row r="790" spans="1:7" ht="15.75" customHeight="1">
+    <row r="790" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -9101,7 +9286,7 @@
       <c r="F790" s="3"/>
       <c r="G790" s="3"/>
     </row>
-    <row r="791" spans="1:7" ht="15.75" customHeight="1">
+    <row r="791" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -9110,7 +9295,7 @@
       <c r="F791" s="3"/>
       <c r="G791" s="3"/>
     </row>
-    <row r="792" spans="1:7" ht="15.75" customHeight="1">
+    <row r="792" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -9119,7 +9304,7 @@
       <c r="F792" s="3"/>
       <c r="G792" s="3"/>
     </row>
-    <row r="793" spans="1:7" ht="15.75" customHeight="1">
+    <row r="793" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -9128,7 +9313,7 @@
       <c r="F793" s="3"/>
       <c r="G793" s="3"/>
     </row>
-    <row r="794" spans="1:7" ht="15.75" customHeight="1">
+    <row r="794" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -9137,7 +9322,7 @@
       <c r="F794" s="3"/>
       <c r="G794" s="3"/>
     </row>
-    <row r="795" spans="1:7" ht="15.75" customHeight="1">
+    <row r="795" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -9146,7 +9331,7 @@
       <c r="F795" s="3"/>
       <c r="G795" s="3"/>
     </row>
-    <row r="796" spans="1:7" ht="15.75" customHeight="1">
+    <row r="796" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -9155,7 +9340,7 @@
       <c r="F796" s="3"/>
       <c r="G796" s="3"/>
     </row>
-    <row r="797" spans="1:7" ht="15.75" customHeight="1">
+    <row r="797" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -9164,7 +9349,7 @@
       <c r="F797" s="3"/>
       <c r="G797" s="3"/>
     </row>
-    <row r="798" spans="1:7" ht="15.75" customHeight="1">
+    <row r="798" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -9173,7 +9358,7 @@
       <c r="F798" s="3"/>
       <c r="G798" s="3"/>
     </row>
-    <row r="799" spans="1:7" ht="15.75" customHeight="1">
+    <row r="799" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -9182,7 +9367,7 @@
       <c r="F799" s="3"/>
       <c r="G799" s="3"/>
     </row>
-    <row r="800" spans="1:7" ht="15.75" customHeight="1">
+    <row r="800" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -9191,7 +9376,7 @@
       <c r="F800" s="3"/>
       <c r="G800" s="3"/>
     </row>
-    <row r="801" spans="1:7" ht="15.75" customHeight="1">
+    <row r="801" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -9200,7 +9385,7 @@
       <c r="F801" s="3"/>
       <c r="G801" s="3"/>
     </row>
-    <row r="802" spans="1:7" ht="15.75" customHeight="1">
+    <row r="802" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -9209,7 +9394,7 @@
       <c r="F802" s="3"/>
       <c r="G802" s="3"/>
     </row>
-    <row r="803" spans="1:7" ht="15.75" customHeight="1">
+    <row r="803" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -9218,7 +9403,7 @@
       <c r="F803" s="3"/>
       <c r="G803" s="3"/>
     </row>
-    <row r="804" spans="1:7" ht="15.75" customHeight="1">
+    <row r="804" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -9227,7 +9412,7 @@
       <c r="F804" s="3"/>
       <c r="G804" s="3"/>
     </row>
-    <row r="805" spans="1:7" ht="15.75" customHeight="1">
+    <row r="805" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -9236,7 +9421,7 @@
       <c r="F805" s="3"/>
       <c r="G805" s="3"/>
     </row>
-    <row r="806" spans="1:7" ht="15.75" customHeight="1">
+    <row r="806" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -9245,7 +9430,7 @@
       <c r="F806" s="3"/>
       <c r="G806" s="3"/>
     </row>
-    <row r="807" spans="1:7" ht="15.75" customHeight="1">
+    <row r="807" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -9254,7 +9439,7 @@
       <c r="F807" s="3"/>
       <c r="G807" s="3"/>
     </row>
-    <row r="808" spans="1:7" ht="15.75" customHeight="1">
+    <row r="808" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -9263,7 +9448,7 @@
       <c r="F808" s="3"/>
       <c r="G808" s="3"/>
     </row>
-    <row r="809" spans="1:7" ht="15.75" customHeight="1">
+    <row r="809" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -9272,7 +9457,7 @@
       <c r="F809" s="3"/>
       <c r="G809" s="3"/>
     </row>
-    <row r="810" spans="1:7" ht="15.75" customHeight="1">
+    <row r="810" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -9281,7 +9466,7 @@
       <c r="F810" s="3"/>
       <c r="G810" s="3"/>
     </row>
-    <row r="811" spans="1:7" ht="15.75" customHeight="1">
+    <row r="811" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -9290,7 +9475,7 @@
       <c r="F811" s="3"/>
       <c r="G811" s="3"/>
     </row>
-    <row r="812" spans="1:7" ht="15.75" customHeight="1">
+    <row r="812" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -9299,7 +9484,7 @@
       <c r="F812" s="3"/>
       <c r="G812" s="3"/>
     </row>
-    <row r="813" spans="1:7" ht="15.75" customHeight="1">
+    <row r="813" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -9308,7 +9493,7 @@
       <c r="F813" s="3"/>
       <c r="G813" s="3"/>
     </row>
-    <row r="814" spans="1:7" ht="15.75" customHeight="1">
+    <row r="814" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -9317,7 +9502,7 @@
       <c r="F814" s="3"/>
       <c r="G814" s="3"/>
     </row>
-    <row r="815" spans="1:7" ht="15.75" customHeight="1">
+    <row r="815" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -9326,7 +9511,7 @@
       <c r="F815" s="3"/>
       <c r="G815" s="3"/>
     </row>
-    <row r="816" spans="1:7" ht="15.75" customHeight="1">
+    <row r="816" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -9335,7 +9520,7 @@
       <c r="F816" s="3"/>
       <c r="G816" s="3"/>
     </row>
-    <row r="817" spans="1:7" ht="15.75" customHeight="1">
+    <row r="817" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -9344,7 +9529,7 @@
       <c r="F817" s="3"/>
       <c r="G817" s="3"/>
     </row>
-    <row r="818" spans="1:7" ht="15.75" customHeight="1">
+    <row r="818" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -9353,7 +9538,7 @@
       <c r="F818" s="3"/>
       <c r="G818" s="3"/>
     </row>
-    <row r="819" spans="1:7" ht="15.75" customHeight="1">
+    <row r="819" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -9362,7 +9547,7 @@
       <c r="F819" s="3"/>
       <c r="G819" s="3"/>
     </row>
-    <row r="820" spans="1:7" ht="15.75" customHeight="1">
+    <row r="820" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -9371,7 +9556,7 @@
       <c r="F820" s="3"/>
       <c r="G820" s="3"/>
     </row>
-    <row r="821" spans="1:7" ht="15.75" customHeight="1">
+    <row r="821" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -9380,7 +9565,7 @@
       <c r="F821" s="3"/>
       <c r="G821" s="3"/>
     </row>
-    <row r="822" spans="1:7" ht="15.75" customHeight="1">
+    <row r="822" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -9389,7 +9574,7 @@
       <c r="F822" s="3"/>
       <c r="G822" s="3"/>
     </row>
-    <row r="823" spans="1:7" ht="15.75" customHeight="1">
+    <row r="823" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -9398,7 +9583,7 @@
       <c r="F823" s="3"/>
       <c r="G823" s="3"/>
     </row>
-    <row r="824" spans="1:7" ht="15.75" customHeight="1">
+    <row r="824" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -9407,7 +9592,7 @@
       <c r="F824" s="3"/>
       <c r="G824" s="3"/>
     </row>
-    <row r="825" spans="1:7" ht="15.75" customHeight="1">
+    <row r="825" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -9416,7 +9601,7 @@
       <c r="F825" s="3"/>
       <c r="G825" s="3"/>
     </row>
-    <row r="826" spans="1:7" ht="15.75" customHeight="1">
+    <row r="826" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -9425,7 +9610,7 @@
       <c r="F826" s="3"/>
       <c r="G826" s="3"/>
     </row>
-    <row r="827" spans="1:7" ht="15.75" customHeight="1">
+    <row r="827" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -9434,7 +9619,7 @@
       <c r="F827" s="3"/>
       <c r="G827" s="3"/>
     </row>
-    <row r="828" spans="1:7" ht="15.75" customHeight="1">
+    <row r="828" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -9443,7 +9628,7 @@
       <c r="F828" s="3"/>
       <c r="G828" s="3"/>
     </row>
-    <row r="829" spans="1:7" ht="15.75" customHeight="1">
+    <row r="829" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -9452,7 +9637,7 @@
       <c r="F829" s="3"/>
       <c r="G829" s="3"/>
     </row>
-    <row r="830" spans="1:7" ht="15.75" customHeight="1">
+    <row r="830" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -9461,7 +9646,7 @@
       <c r="F830" s="3"/>
       <c r="G830" s="3"/>
     </row>
-    <row r="831" spans="1:7" ht="15.75" customHeight="1">
+    <row r="831" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -9470,7 +9655,7 @@
       <c r="F831" s="3"/>
       <c r="G831" s="3"/>
     </row>
-    <row r="832" spans="1:7" ht="15.75" customHeight="1">
+    <row r="832" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -9479,7 +9664,7 @@
       <c r="F832" s="3"/>
       <c r="G832" s="3"/>
     </row>
-    <row r="833" spans="1:7" ht="15.75" customHeight="1">
+    <row r="833" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -9488,7 +9673,7 @@
       <c r="F833" s="3"/>
       <c r="G833" s="3"/>
     </row>
-    <row r="834" spans="1:7" ht="15.75" customHeight="1">
+    <row r="834" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -9497,7 +9682,7 @@
       <c r="F834" s="3"/>
       <c r="G834" s="3"/>
     </row>
-    <row r="835" spans="1:7" ht="15.75" customHeight="1">
+    <row r="835" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -9506,7 +9691,7 @@
       <c r="F835" s="3"/>
       <c r="G835" s="3"/>
     </row>
-    <row r="836" spans="1:7" ht="15.75" customHeight="1">
+    <row r="836" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -9515,7 +9700,7 @@
       <c r="F836" s="3"/>
       <c r="G836" s="3"/>
     </row>
-    <row r="837" spans="1:7" ht="15.75" customHeight="1">
+    <row r="837" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -9524,7 +9709,7 @@
       <c r="F837" s="3"/>
       <c r="G837" s="3"/>
     </row>
-    <row r="838" spans="1:7" ht="15.75" customHeight="1">
+    <row r="838" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -9533,7 +9718,7 @@
       <c r="F838" s="3"/>
       <c r="G838" s="3"/>
     </row>
-    <row r="839" spans="1:7" ht="15.75" customHeight="1">
+    <row r="839" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -9542,7 +9727,7 @@
       <c r="F839" s="3"/>
       <c r="G839" s="3"/>
     </row>
-    <row r="840" spans="1:7" ht="15.75" customHeight="1">
+    <row r="840" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -9551,7 +9736,7 @@
       <c r="F840" s="3"/>
       <c r="G840" s="3"/>
     </row>
-    <row r="841" spans="1:7" ht="15.75" customHeight="1">
+    <row r="841" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -9560,7 +9745,7 @@
       <c r="F841" s="3"/>
       <c r="G841" s="3"/>
     </row>
-    <row r="842" spans="1:7" ht="15.75" customHeight="1">
+    <row r="842" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -9569,7 +9754,7 @@
       <c r="F842" s="3"/>
       <c r="G842" s="3"/>
     </row>
-    <row r="843" spans="1:7" ht="15.75" customHeight="1">
+    <row r="843" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -9578,7 +9763,7 @@
       <c r="F843" s="3"/>
       <c r="G843" s="3"/>
     </row>
-    <row r="844" spans="1:7" ht="15.75" customHeight="1">
+    <row r="844" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -9587,7 +9772,7 @@
       <c r="F844" s="3"/>
       <c r="G844" s="3"/>
     </row>
-    <row r="845" spans="1:7" ht="15.75" customHeight="1">
+    <row r="845" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -9596,7 +9781,7 @@
       <c r="F845" s="3"/>
       <c r="G845" s="3"/>
     </row>
-    <row r="846" spans="1:7" ht="15.75" customHeight="1">
+    <row r="846" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -9605,7 +9790,7 @@
       <c r="F846" s="3"/>
       <c r="G846" s="3"/>
     </row>
-    <row r="847" spans="1:7" ht="15.75" customHeight="1">
+    <row r="847" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -9614,7 +9799,7 @@
       <c r="F847" s="3"/>
       <c r="G847" s="3"/>
     </row>
-    <row r="848" spans="1:7" ht="15.75" customHeight="1">
+    <row r="848" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -9623,7 +9808,7 @@
       <c r="F848" s="3"/>
       <c r="G848" s="3"/>
     </row>
-    <row r="849" spans="1:7" ht="15.75" customHeight="1">
+    <row r="849" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -9632,7 +9817,7 @@
       <c r="F849" s="3"/>
       <c r="G849" s="3"/>
     </row>
-    <row r="850" spans="1:7" ht="15.75" customHeight="1">
+    <row r="850" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -9641,7 +9826,7 @@
       <c r="F850" s="3"/>
       <c r="G850" s="3"/>
     </row>
-    <row r="851" spans="1:7" ht="15.75" customHeight="1">
+    <row r="851" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -9650,7 +9835,7 @@
       <c r="F851" s="3"/>
       <c r="G851" s="3"/>
     </row>
-    <row r="852" spans="1:7" ht="15.75" customHeight="1">
+    <row r="852" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -9659,7 +9844,7 @@
       <c r="F852" s="3"/>
       <c r="G852" s="3"/>
     </row>
-    <row r="853" spans="1:7" ht="15.75" customHeight="1">
+    <row r="853" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -9668,7 +9853,7 @@
       <c r="F853" s="3"/>
       <c r="G853" s="3"/>
     </row>
-    <row r="854" spans="1:7" ht="15.75" customHeight="1">
+    <row r="854" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -9677,7 +9862,7 @@
       <c r="F854" s="3"/>
       <c r="G854" s="3"/>
     </row>
-    <row r="855" spans="1:7" ht="15.75" customHeight="1">
+    <row r="855" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -9686,7 +9871,7 @@
       <c r="F855" s="3"/>
       <c r="G855" s="3"/>
     </row>
-    <row r="856" spans="1:7" ht="15.75" customHeight="1">
+    <row r="856" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -9695,7 +9880,7 @@
       <c r="F856" s="3"/>
       <c r="G856" s="3"/>
     </row>
-    <row r="857" spans="1:7" ht="15.75" customHeight="1">
+    <row r="857" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -9704,7 +9889,7 @@
       <c r="F857" s="3"/>
       <c r="G857" s="3"/>
     </row>
-    <row r="858" spans="1:7" ht="15.75" customHeight="1">
+    <row r="858" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -9713,7 +9898,7 @@
       <c r="F858" s="3"/>
       <c r="G858" s="3"/>
     </row>
-    <row r="859" spans="1:7" ht="15.75" customHeight="1">
+    <row r="859" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -9722,7 +9907,7 @@
       <c r="F859" s="3"/>
       <c r="G859" s="3"/>
     </row>
-    <row r="860" spans="1:7" ht="15.75" customHeight="1">
+    <row r="860" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -9731,7 +9916,7 @@
       <c r="F860" s="3"/>
       <c r="G860" s="3"/>
     </row>
-    <row r="861" spans="1:7" ht="15.75" customHeight="1">
+    <row r="861" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -9740,7 +9925,7 @@
       <c r="F861" s="3"/>
       <c r="G861" s="3"/>
     </row>
-    <row r="862" spans="1:7" ht="15.75" customHeight="1">
+    <row r="862" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -9749,7 +9934,7 @@
       <c r="F862" s="3"/>
       <c r="G862" s="3"/>
     </row>
-    <row r="863" spans="1:7" ht="15.75" customHeight="1">
+    <row r="863" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -9758,7 +9943,7 @@
       <c r="F863" s="3"/>
       <c r="G863" s="3"/>
     </row>
-    <row r="864" spans="1:7" ht="15.75" customHeight="1">
+    <row r="864" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -9767,7 +9952,7 @@
       <c r="F864" s="3"/>
       <c r="G864" s="3"/>
     </row>
-    <row r="865" spans="1:7" ht="15.75" customHeight="1">
+    <row r="865" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -9776,7 +9961,7 @@
       <c r="F865" s="3"/>
       <c r="G865" s="3"/>
     </row>
-    <row r="866" spans="1:7" ht="15.75" customHeight="1">
+    <row r="866" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -9785,7 +9970,7 @@
       <c r="F866" s="3"/>
       <c r="G866" s="3"/>
     </row>
-    <row r="867" spans="1:7" ht="15.75" customHeight="1">
+    <row r="867" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -9794,7 +9979,7 @@
       <c r="F867" s="3"/>
       <c r="G867" s="3"/>
     </row>
-    <row r="868" spans="1:7" ht="15.75" customHeight="1">
+    <row r="868" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -9803,7 +9988,7 @@
       <c r="F868" s="3"/>
       <c r="G868" s="3"/>
     </row>
-    <row r="869" spans="1:7" ht="15.75" customHeight="1">
+    <row r="869" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -9812,7 +9997,7 @@
       <c r="F869" s="3"/>
       <c r="G869" s="3"/>
     </row>
-    <row r="870" spans="1:7" ht="15.75" customHeight="1">
+    <row r="870" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -9821,7 +10006,7 @@
       <c r="F870" s="3"/>
       <c r="G870" s="3"/>
     </row>
-    <row r="871" spans="1:7" ht="15.75" customHeight="1">
+    <row r="871" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -9830,7 +10015,7 @@
       <c r="F871" s="3"/>
       <c r="G871" s="3"/>
     </row>
-    <row r="872" spans="1:7" ht="15.75" customHeight="1">
+    <row r="872" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -9839,7 +10024,7 @@
       <c r="F872" s="3"/>
       <c r="G872" s="3"/>
     </row>
-    <row r="873" spans="1:7" ht="15.75" customHeight="1">
+    <row r="873" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -9848,12 +10033,39 @@
       <c r="F873" s="3"/>
       <c r="G873" s="3"/>
     </row>
-    <row r="874" spans="1:7" ht="15" customHeight="1">
+    <row r="874" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A874" s="3"/>
+      <c r="B874" s="3"/>
+      <c r="C874" s="3"/>
+      <c r="D874" s="3"/>
+      <c r="E874" s="3"/>
       <c r="F874" s="3"/>
       <c r="G874" s="3"/>
     </row>
+    <row r="875" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A875" s="3"/>
+      <c r="B875" s="3"/>
+      <c r="C875" s="3"/>
+      <c r="D875" s="3"/>
+      <c r="E875" s="3"/>
+      <c r="F875" s="3"/>
+      <c r="G875" s="3"/>
+    </row>
+    <row r="876" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A876" s="3"/>
+      <c r="B876" s="3"/>
+      <c r="C876" s="3"/>
+      <c r="D876" s="3"/>
+      <c r="E876" s="3"/>
+      <c r="F876" s="3"/>
+      <c r="G876" s="3"/>
+    </row>
+    <row r="877" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F877" s="3"/>
+      <c r="G877" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="68">
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C19:C30"/>
     <mergeCell ref="E56:E57"/>
@@ -9862,14 +10074,20 @@
     <mergeCell ref="D35:D39"/>
     <mergeCell ref="E46:E48"/>
     <mergeCell ref="D46:D51"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="C66:C76"/>
+    <mergeCell ref="C31:C41"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C8:C18"/>
     <mergeCell ref="E42:E43"/>
     <mergeCell ref="E44:E45"/>
     <mergeCell ref="C54:C65"/>
-    <mergeCell ref="C31:C41"/>
     <mergeCell ref="E70:E72"/>
     <mergeCell ref="D70:D74"/>
+    <mergeCell ref="D58:D63"/>
     <mergeCell ref="B1:G2"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E19:E20"/>
@@ -9886,19 +10104,6 @@
     <mergeCell ref="D42:D45"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="E68:E69"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C8:C18"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="D58:D63"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="D23:D28"/>
     <mergeCell ref="C77:C88"/>
@@ -9908,6 +10113,13 @@
     <mergeCell ref="D81:D86"/>
     <mergeCell ref="E81:E83"/>
     <mergeCell ref="E84:E86"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="C66:C76"/>
     <mergeCell ref="C89:C100"/>
     <mergeCell ref="D89:D92"/>
     <mergeCell ref="E89:E90"/>
@@ -9915,6 +10127,13 @@
     <mergeCell ref="D93:D98"/>
     <mergeCell ref="E93:E95"/>
     <mergeCell ref="E96:E98"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="C101:C111"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="D105:D109"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
